--- a/output7/【河洛文讀注音-雅俗通】《般若波羅蜜多心經》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《般若波羅蜜多心經》.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC2A8F2-D70F-43D3-87D9-925B3A59D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBCD73B-BAF6-4B98-B0F1-1520734A23DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="1" r:id="rId2"/>
-    <sheet name="台羅拼音" sheetId="15" r:id="rId3"/>
-    <sheet name="十五音" sheetId="14" r:id="rId4"/>
-    <sheet name="閩拼方案" sheetId="12" r:id="rId5"/>
-    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId6"/>
-    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId7"/>
-    <sheet name="轉調助記圖" sheetId="5" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="16" r:id="rId3"/>
+    <sheet name="台羅拼音" sheetId="15" r:id="rId4"/>
+    <sheet name="十五音" sheetId="14" r:id="rId5"/>
+    <sheet name="閩拼方案" sheetId="12" r:id="rId6"/>
+    <sheet name="135拼音-聲調符號" sheetId="3" r:id="rId7"/>
+    <sheet name="135拼音-聲調轉換" sheetId="4" r:id="rId8"/>
+    <sheet name="轉調助記圖" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="872">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3036,10 +3037,6 @@
     <t>方音符號</t>
   </si>
   <si>
-    <t>hing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>觀自在菩薩，行深般若波羅蜜多時，照見五蘊皆空，度一切苦厄。
 舍利子！色不異空，空不異色，色即是空，空即是色，受想行識，亦復如是。
 舍利子！是諸法空相，不生不滅，不垢不淨，不增不減。是故空中無色，無受想行識。無眼耳鼻舌身意；無色聲香味觸法。
@@ -3056,453 +3053,454 @@
     <t>無預設</t>
   </si>
   <si>
+    <t>觀一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽一頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干四時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金一出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾四英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉四英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君四邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅八門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梔七喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梔七頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭四出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆二耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾七曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金八曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江七門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼四柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽七柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬌二門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經二地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍五地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀八英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>φ</t>
+  </si>
+  <si>
     <t>hang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>江五喜</t>
-  </si>
-  <si>
-    <t>觀一求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍七曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽一頗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干四時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金一出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官一邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭八入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一頗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居五時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嬌三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君三英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆一求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公一去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾四英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉四英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迦二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍二曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經四時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君四邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經四曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經八英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公八喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍五入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀四喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅八門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經七曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼二求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭一地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干二語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梔七喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梔七頗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅八時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭一喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居七門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭四出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆二耐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾七曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金八曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經四地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽二時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽五他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭二去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽三邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀二英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅一地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江七門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經三求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼四柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘一時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君八喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠一英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽七柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嬌二門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皆七地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾五時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丩三曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜七時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經二地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>經五柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艍五地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾一曾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巾八時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居一喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀四時</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀八英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堅四求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽三地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高五邊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3510,7 +3508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="91">
+  <fonts count="93">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4145,6 +4143,20 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4316,7 +4328,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4639,6 +4651,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4651,15 +4666,18 @@
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7489,7 +7507,7 @@
   </sheetPr>
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7602,7 +7620,7 @@
         <v>321</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -7610,7 +7628,7 @@
         <v>322</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -7626,7 +7644,7 @@
         <v>751</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -7671,10 +7689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
-  <dimension ref="B2:V242"/>
+  <dimension ref="B1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7690,6 +7708,23 @@
     <col min="23" max="23" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:22">
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+    </row>
     <row r="2" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -7721,9 +7756,7 @@
       <c r="G3" s="117"/>
       <c r="H3" s="117"/>
       <c r="I3" s="117"/>
-      <c r="J3" s="117" t="s">
-        <v>756</v>
-      </c>
+      <c r="J3" s="117"/>
       <c r="K3" s="117"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -7734,52 +7767,52 @@
       <c r="R3" s="117"/>
       <c r="T3" s="90"/>
       <c r="V3" s="105" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="118" t="s">
         <v>606</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="118" t="s">
         <v>550</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="118" t="s">
         <v>607</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="118" t="s">
         <v>608</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="118" t="s">
         <v>609</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115" t="s">
-        <v>760</v>
-      </c>
-      <c r="K4" s="115" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="118" t="s">
+        <v>870</v>
+      </c>
+      <c r="K4" s="118" t="s">
         <v>610</v>
       </c>
-      <c r="L4" s="115" t="s">
+      <c r="L4" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="M4" s="115" t="s">
+      <c r="M4" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="R4" s="115" t="s">
+      <c r="R4" s="118" t="s">
         <v>617</v>
       </c>
       <c r="S4" s="91"/>
@@ -7789,49 +7822,49 @@
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="112" t="s">
         <v>683</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="112" t="s">
         <v>684</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="112" t="s">
         <v>685</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="112" t="s">
         <v>564</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="112" t="s">
         <v>565</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="112" t="s">
         <v>686</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="112" t="s">
         <v>687</v>
       </c>
-      <c r="L5" s="111" t="s">
+      <c r="L5" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="M5" s="111" t="s">
+      <c r="M5" s="112" t="s">
         <v>567</v>
       </c>
-      <c r="N5" s="111" t="s">
+      <c r="N5" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="112" t="s">
         <v>570</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="Q5" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="R5" s="112" t="s">
         <v>688</v>
       </c>
       <c r="S5" s="92"/>
@@ -7840,48 +7873,48 @@
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="119" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>760</v>
+      </c>
+      <c r="F6" s="119" t="s">
+        <v>761</v>
+      </c>
+      <c r="G6" s="119" t="s">
         <v>762</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="H6" s="119" t="s">
         <v>763</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="I6" s="119"/>
+      <c r="J6" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="K6" s="119" t="s">
         <v>764</v>
       </c>
-      <c r="G6" s="116" t="s">
+      <c r="L6" s="119" t="s">
         <v>765</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="M6" s="119" t="s">
         <v>766</v>
       </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116" t="s">
-        <v>761</v>
-      </c>
-      <c r="K6" s="116" t="s">
+      <c r="N6" s="119" t="s">
         <v>767</v>
       </c>
-      <c r="L6" s="116" t="s">
+      <c r="O6" s="119" t="s">
         <v>768</v>
       </c>
-      <c r="M6" s="116" t="s">
+      <c r="P6" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="N6" s="116" t="s">
+      <c r="Q6" s="119" t="s">
         <v>770</v>
       </c>
-      <c r="O6" s="116" t="s">
+      <c r="R6" s="119" t="s">
         <v>771</v>
-      </c>
-      <c r="P6" s="116" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q6" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="R6" s="116" t="s">
-        <v>774</v>
       </c>
       <c r="S6" s="93"/>
       <c r="V6" s="106"/>
@@ -7909,43 +7942,43 @@
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115" t="s">
+      <c r="D8" s="118"/>
+      <c r="E8" s="118" t="s">
         <v>618</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="118" t="s">
         <v>619</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="118" t="s">
         <v>620</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="H8" s="118" t="s">
         <v>621</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="118" t="s">
         <v>622</v>
       </c>
-      <c r="J8" s="115" t="s">
+      <c r="J8" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115" t="s">
+      <c r="K8" s="118"/>
+      <c r="L8" s="118" t="s">
         <v>624</v>
       </c>
-      <c r="M8" s="115" t="s">
+      <c r="M8" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="118" t="s">
         <v>625</v>
       </c>
-      <c r="O8" s="115" t="s">
+      <c r="O8" s="118" t="s">
         <v>626</v>
       </c>
-      <c r="P8" s="115" t="s">
+      <c r="P8" s="118" t="s">
         <v>627</v>
       </c>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
       <c r="S8" s="91"/>
       <c r="V8" s="106"/>
     </row>
@@ -7954,49 +7987,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="112" t="s">
         <v>689</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="112" t="s">
         <v>690</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="112" t="s">
         <v>691</v>
       </c>
-      <c r="H9" s="111" t="s">
+      <c r="H9" s="112" t="s">
         <v>692</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="112" t="s">
         <v>693</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="111" t="s">
+      <c r="L9" s="112" t="s">
         <v>695</v>
       </c>
-      <c r="M9" s="111" t="s">
+      <c r="M9" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="111" t="s">
+      <c r="N9" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="O9" s="111" t="s">
+      <c r="O9" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="P9" s="111" t="s">
+      <c r="P9" s="112" t="s">
         <v>698</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="111" t="str">
+      <c r="R9" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8007,43 +8040,43 @@
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116" t="s">
+      <c r="D10" s="119"/>
+      <c r="E10" s="119" t="s">
+        <v>772</v>
+      </c>
+      <c r="F10" s="119" t="s">
+        <v>773</v>
+      </c>
+      <c r="G10" s="119" t="s">
+        <v>774</v>
+      </c>
+      <c r="H10" s="119" t="s">
         <v>775</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="I10" s="119" t="s">
         <v>776</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="J10" s="119" t="s">
         <v>777</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="K10" s="119"/>
+      <c r="L10" s="119" t="s">
         <v>778</v>
       </c>
-      <c r="I10" s="116" t="s">
+      <c r="M10" s="119" t="s">
         <v>779</v>
       </c>
-      <c r="J10" s="116" t="s">
+      <c r="N10" s="119" t="s">
         <v>780</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116" t="s">
+      <c r="O10" s="119" t="s">
         <v>781</v>
       </c>
-      <c r="M10" s="116" t="s">
+      <c r="P10" s="119" t="s">
         <v>782</v>
       </c>
-      <c r="N10" s="116" t="s">
-        <v>783</v>
-      </c>
-      <c r="O10" s="116" t="s">
-        <v>784</v>
-      </c>
-      <c r="P10" s="116" t="s">
-        <v>785</v>
-      </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="94"/>
       <c r="V10" s="106"/>
     </row>
@@ -8069,7 +8102,7 @@
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
-      <c r="D12" s="115"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="82"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
@@ -8092,31 +8125,31 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="111" t="str">
+      <c r="D13" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
       <c r="S13" s="92"/>
       <c r="V13" s="106"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
-      <c r="D14" s="116"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="83"/>
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
@@ -8156,43 +8189,43 @@
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="118" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="118" t="s">
         <v>629</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="118" t="s">
         <v>630</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115" t="s">
+      <c r="G16" s="118"/>
+      <c r="H16" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="118" t="s">
         <v>633</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="K16" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115" t="s">
+      <c r="L16" s="118"/>
+      <c r="M16" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="N16" s="115" t="s">
+      <c r="N16" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="O16" s="115" t="s">
+      <c r="O16" s="118" t="s">
         <v>633</v>
       </c>
-      <c r="P16" s="115" t="s">
+      <c r="P16" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115" t="s">
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118" t="s">
         <v>631</v>
       </c>
       <c r="S16" s="91"/>
@@ -8203,49 +8236,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="112" t="s">
         <v>699</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="112" t="s">
         <v>700</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="111" t="s">
+      <c r="M17" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="N17" s="111" t="s">
+      <c r="N17" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="O17" s="111" t="s">
+      <c r="O17" s="112" t="s">
         <v>704</v>
       </c>
-      <c r="P17" s="111" t="s">
+      <c r="P17" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="Q17" s="111" t="s">
+      <c r="Q17" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="R17" s="111" t="s">
+      <c r="R17" s="112" t="s">
         <v>702</v>
       </c>
       <c r="S17" s="92"/>
@@ -8253,44 +8286,44 @@
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
-      <c r="D18" s="116" t="s">
+      <c r="D18" s="119" t="s">
+        <v>783</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>784</v>
+      </c>
+      <c r="F18" s="119" t="s">
+        <v>785</v>
+      </c>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119" t="s">
         <v>786</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="I18" s="119" t="s">
         <v>787</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="J18" s="119" t="s">
         <v>788</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="I18" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="J18" s="116" t="s">
-        <v>791</v>
-      </c>
-      <c r="K18" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="N18" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="O18" s="116" t="s">
-        <v>791</v>
-      </c>
-      <c r="P18" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116" t="s">
-        <v>789</v>
+      <c r="K18" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="N18" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="O18" s="119" t="s">
+        <v>788</v>
+      </c>
+      <c r="P18" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119" t="s">
+        <v>786</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="106"/>
@@ -8317,43 +8350,43 @@
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="118" t="s">
         <v>634</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115" t="s">
+      <c r="G20" s="118"/>
+      <c r="H20" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="I20" s="115" t="s">
+      <c r="I20" s="118" t="s">
         <v>634</v>
       </c>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="K20" s="115" t="s">
+      <c r="K20" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115" t="s">
+      <c r="L20" s="118"/>
+      <c r="M20" s="118" t="s">
         <v>635</v>
       </c>
-      <c r="N20" s="115" t="s">
+      <c r="N20" s="118" t="s">
         <v>551</v>
       </c>
-      <c r="O20" s="115" t="s">
-        <v>756</v>
-      </c>
-      <c r="P20" s="115" t="s">
+      <c r="O20" s="118" t="s">
+        <v>870</v>
+      </c>
+      <c r="P20" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115" t="s">
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118" t="s">
         <v>636</v>
       </c>
       <c r="S20" s="91"/>
@@ -8364,49 +8397,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="112" t="s">
         <v>573</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="111" t="s">
+      <c r="F21" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="112" t="s">
         <v>573</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="K21" s="111" t="s">
+      <c r="K21" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="112" t="s">
+      <c r="M21" s="113" t="s">
         <v>705</v>
       </c>
-      <c r="N21" s="111" t="s">
+      <c r="N21" s="112" t="s">
         <v>574</v>
       </c>
-      <c r="O21" s="102" t="s">
+      <c r="O21" s="112" t="s">
         <v>686</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="112" t="s">
         <v>706</v>
       </c>
-      <c r="Q21" s="111" t="s">
+      <c r="Q21" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="111" t="s">
+      <c r="R21" s="112" t="s">
         <v>707</v>
       </c>
       <c r="S21" s="92"/>
@@ -8414,44 +8447,44 @@
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="119" t="s">
+        <v>789</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="F22" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>789</v>
+      </c>
+      <c r="J22" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="K22" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119" t="s">
+        <v>791</v>
+      </c>
+      <c r="N22" s="119" t="s">
         <v>792</v>
       </c>
-      <c r="E22" s="116" t="s">
+      <c r="O22" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="P22" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119" t="s">
         <v>793</v>
-      </c>
-      <c r="F22" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="I22" s="116" t="s">
-        <v>792</v>
-      </c>
-      <c r="J22" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="K22" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116" t="s">
-        <v>794</v>
-      </c>
-      <c r="N22" s="116" t="s">
-        <v>795</v>
-      </c>
-      <c r="O22" s="116" t="s">
-        <v>796</v>
-      </c>
-      <c r="P22" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116" t="s">
-        <v>797</v>
       </c>
       <c r="S22" s="94"/>
       <c r="V22" s="107"/>
@@ -8478,17 +8511,17 @@
     </row>
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="115" t="s">
+      <c r="E24" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
@@ -8507,49 +8540,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="112" t="s">
         <v>708</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="112" t="s">
         <v>709</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="111" t="str">
+      <c r="H25" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
-      <c r="D26" s="116" t="s">
-        <v>798</v>
-      </c>
-      <c r="E26" s="116" t="s">
-        <v>799</v>
-      </c>
-      <c r="F26" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
+      <c r="D26" s="119" t="s">
+        <v>794</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>795</v>
+      </c>
+      <c r="F26" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
       <c r="I26" s="83"/>
       <c r="J26" s="83"/>
       <c r="K26" s="83"/>
@@ -8593,7 +8626,7 @@
     </row>
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
-      <c r="D28" s="115"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="82"/>
       <c r="F28" s="82"/>
       <c r="G28" s="82"/>
@@ -8620,25 +8653,25 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="111" t="str">
+      <c r="D29" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
@@ -8648,7 +8681,7 @@
     </row>
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
-      <c r="D30" s="116"/>
+      <c r="D30" s="119"/>
       <c r="E30" s="83"/>
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
@@ -8696,45 +8729,45 @@
     </row>
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="118" t="s">
         <v>628</v>
       </c>
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="118" t="s">
         <v>629</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="118" t="s">
         <v>630</v>
       </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115" t="s">
+      <c r="G32" s="118"/>
+      <c r="H32" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="I32" s="115" t="s">
+      <c r="I32" s="118" t="s">
         <v>637</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="118" t="s">
         <v>638</v>
       </c>
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="L32" s="115" t="s">
+      <c r="L32" s="118" t="s">
         <v>639</v>
       </c>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115" t="s">
+      <c r="M32" s="118"/>
+      <c r="N32" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="O32" s="115" t="s">
+      <c r="O32" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="P32" s="115" t="s">
+      <c r="P32" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="Q32" s="115" t="s">
+      <c r="Q32" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="R32" s="115"/>
+      <c r="R32" s="118"/>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
         <f t="shared" si="0"/>
@@ -8747,49 +8780,49 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="112" t="s">
         <v>699</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="112" t="s">
         <v>700</v>
       </c>
-      <c r="F33" s="111" t="s">
+      <c r="F33" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="111" t="s">
+      <c r="G33" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="111" t="s">
+      <c r="I33" s="112" t="s">
         <v>575</v>
       </c>
-      <c r="J33" s="111" t="s">
+      <c r="J33" s="112" t="s">
         <v>710</v>
       </c>
-      <c r="K33" s="111" t="s">
+      <c r="K33" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="L33" s="111" t="s">
+      <c r="L33" s="112" t="s">
         <v>711</v>
       </c>
-      <c r="M33" s="111" t="s">
+      <c r="M33" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="111" t="s">
+      <c r="N33" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="O33" s="111" t="s">
+      <c r="O33" s="112" t="s">
         <v>712</v>
       </c>
-      <c r="P33" s="111" t="s">
+      <c r="P33" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="Q33" s="111" t="s">
+      <c r="Q33" s="112" t="s">
         <v>713</v>
       </c>
-      <c r="R33" s="111" t="s">
+      <c r="R33" s="112" t="s">
         <v>183</v>
       </c>
       <c r="S33" s="92"/>
@@ -8797,45 +8830,45 @@
     </row>
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
-      <c r="D34" s="116" t="s">
-        <v>786</v>
-      </c>
-      <c r="E34" s="116" t="s">
+      <c r="D34" s="119" t="s">
+        <v>783</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>784</v>
+      </c>
+      <c r="F34" s="119" t="s">
+        <v>785</v>
+      </c>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="I34" s="119" t="s">
+        <v>796</v>
+      </c>
+      <c r="J34" s="119" t="s">
+        <v>797</v>
+      </c>
+      <c r="K34" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="L34" s="119" t="s">
+        <v>798</v>
+      </c>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119" t="s">
         <v>787</v>
       </c>
-      <c r="F34" s="116" t="s">
-        <v>788</v>
-      </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="I34" s="116" t="s">
+      <c r="O34" s="119" t="s">
+        <v>799</v>
+      </c>
+      <c r="P34" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q34" s="119" t="s">
         <v>800</v>
       </c>
-      <c r="J34" s="116" t="s">
-        <v>801</v>
-      </c>
-      <c r="K34" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="L34" s="116" t="s">
-        <v>802</v>
-      </c>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="O34" s="116" t="s">
-        <v>803</v>
-      </c>
-      <c r="P34" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q34" s="116" t="s">
-        <v>804</v>
-      </c>
-      <c r="R34" s="116"/>
+      <c r="R34" s="119"/>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
     </row>
@@ -8861,45 +8894,45 @@
     </row>
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="E36" s="115" t="s">
+      <c r="E36" s="118" t="s">
         <v>546</v>
       </c>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="G36" s="115" t="s">
+      <c r="G36" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115" t="s">
+      <c r="H36" s="118"/>
+      <c r="I36" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="J36" s="115" t="s">
+      <c r="J36" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="K36" s="115" t="s">
+      <c r="K36" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="L36" s="115" t="s">
+      <c r="L36" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115" t="s">
+      <c r="M36" s="118"/>
+      <c r="N36" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="O36" s="115" t="s">
+      <c r="O36" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="P36" s="115" t="s">
+      <c r="P36" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="Q36" s="115" t="s">
+      <c r="Q36" s="118" t="s">
         <v>557</v>
       </c>
-      <c r="R36" s="115" t="s">
+      <c r="R36" s="118" t="s">
         <v>548</v>
       </c>
       <c r="S36" s="91"/>
@@ -8910,49 +8943,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="E37" s="111" t="s">
+      <c r="E37" s="112" t="s">
         <v>714</v>
       </c>
-      <c r="F37" s="111" t="s">
+      <c r="F37" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="112" t="s">
         <v>715</v>
       </c>
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="111" t="s">
+      <c r="I37" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="J37" s="111" t="s">
+      <c r="J37" s="112" t="s">
         <v>716</v>
       </c>
-      <c r="K37" s="111" t="s">
+      <c r="K37" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="L37" s="111" t="s">
+      <c r="L37" s="112" t="s">
         <v>717</v>
       </c>
-      <c r="M37" s="111" t="s">
+      <c r="M37" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="N37" s="111" t="s">
+      <c r="N37" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="111" t="s">
+      <c r="O37" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="P37" s="111" t="s">
+      <c r="P37" s="112" t="s">
         <v>694</v>
       </c>
-      <c r="Q37" s="111" t="s">
+      <c r="Q37" s="112" t="s">
         <v>718</v>
       </c>
-      <c r="R37" s="111" t="s">
+      <c r="R37" s="112" t="s">
         <v>185</v>
       </c>
       <c r="S37" s="92"/>
@@ -8960,46 +8993,46 @@
     </row>
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>801</v>
+      </c>
+      <c r="F38" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="G38" s="119" t="s">
+        <v>802</v>
+      </c>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="J38" s="119" t="s">
+        <v>803</v>
+      </c>
+      <c r="K38" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="L38" s="119" t="s">
+        <v>804</v>
+      </c>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119" t="s">
         <v>790</v>
       </c>
-      <c r="E38" s="116" t="s">
+      <c r="O38" s="119" t="s">
         <v>805</v>
       </c>
-      <c r="F38" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="G38" s="116" t="s">
+      <c r="P38" s="119" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q38" s="119" t="s">
         <v>806</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="J38" s="116" t="s">
+      <c r="R38" s="119" t="s">
         <v>807</v>
-      </c>
-      <c r="K38" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="L38" s="116" t="s">
-        <v>808</v>
-      </c>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="O38" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="P38" s="116" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q38" s="116" t="s">
-        <v>810</v>
-      </c>
-      <c r="R38" s="116" t="s">
-        <v>811</v>
       </c>
       <c r="S38" s="94"/>
       <c r="V38" s="60"/>
@@ -9026,45 +9059,45 @@
     </row>
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115" t="s">
+      <c r="E40" s="118"/>
+      <c r="F40" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="118" t="s">
         <v>635</v>
       </c>
-      <c r="H40" s="115" t="s">
+      <c r="H40" s="118" t="s">
         <v>551</v>
       </c>
-      <c r="I40" s="115" t="s">
-        <v>756</v>
-      </c>
-      <c r="J40" s="115" t="s">
+      <c r="I40" s="118" t="s">
+        <v>870</v>
+      </c>
+      <c r="J40" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115" t="s">
+      <c r="K40" s="118"/>
+      <c r="L40" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="M40" s="115" t="s">
+      <c r="M40" s="118" t="s">
         <v>644</v>
       </c>
-      <c r="N40" s="115" t="s">
+      <c r="N40" s="118" t="s">
         <v>645</v>
       </c>
-      <c r="O40" s="115" t="s">
+      <c r="O40" s="118" t="s">
         <v>646</v>
       </c>
-      <c r="P40" s="115" t="s">
+      <c r="P40" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="Q40" s="115" t="s">
+      <c r="Q40" s="118" t="s">
         <v>648</v>
       </c>
-      <c r="R40" s="115" t="s">
+      <c r="R40" s="118" t="s">
         <v>649</v>
       </c>
       <c r="S40" s="91"/>
@@ -9075,49 +9108,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="E41" s="111" t="s">
+      <c r="E41" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="F41" s="111" t="s">
+      <c r="F41" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="111" t="s">
+      <c r="G41" s="112" t="s">
         <v>705</v>
       </c>
-      <c r="H41" s="111" t="s">
+      <c r="H41" s="112" t="s">
         <v>574</v>
       </c>
-      <c r="I41" s="102" t="s">
+      <c r="I41" s="112" t="s">
         <v>686</v>
       </c>
-      <c r="J41" s="111" t="s">
+      <c r="J41" s="112" t="s">
         <v>706</v>
       </c>
-      <c r="K41" s="111" t="s">
+      <c r="K41" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="L41" s="111" t="s">
+      <c r="L41" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="111" t="s">
+      <c r="M41" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="N41" s="111" t="s">
+      <c r="N41" s="112" t="s">
         <v>720</v>
       </c>
-      <c r="O41" s="111" t="s">
+      <c r="O41" s="112" t="s">
         <v>721</v>
       </c>
-      <c r="P41" s="111" t="s">
+      <c r="P41" s="112" t="s">
         <v>722</v>
       </c>
-      <c r="Q41" s="111" t="s">
+      <c r="Q41" s="112" t="s">
         <v>723</v>
       </c>
-      <c r="R41" s="111" t="s">
+      <c r="R41" s="112" t="s">
         <v>724</v>
       </c>
       <c r="S41" s="92"/>
@@ -9125,46 +9158,46 @@
     </row>
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
-      <c r="D42" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116" t="s">
+      <c r="D42" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="G42" s="119" t="s">
+        <v>791</v>
+      </c>
+      <c r="H42" s="119" t="s">
+        <v>792</v>
+      </c>
+      <c r="I42" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="J42" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="M42" s="119" t="s">
+        <v>808</v>
+      </c>
+      <c r="N42" s="119" t="s">
+        <v>809</v>
+      </c>
+      <c r="O42" s="119" t="s">
+        <v>810</v>
+      </c>
+      <c r="P42" s="119" t="s">
         <v>811</v>
       </c>
-      <c r="G42" s="116" t="s">
-        <v>794</v>
-      </c>
-      <c r="H42" s="116" t="s">
-        <v>795</v>
-      </c>
-      <c r="I42" s="116" t="s">
-        <v>796</v>
-      </c>
-      <c r="J42" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="M42" s="116" t="s">
+      <c r="Q42" s="119" t="s">
         <v>812</v>
       </c>
-      <c r="N42" s="116" t="s">
+      <c r="R42" s="119" t="s">
         <v>813</v>
-      </c>
-      <c r="O42" s="116" t="s">
-        <v>814</v>
-      </c>
-      <c r="P42" s="116" t="s">
-        <v>815</v>
-      </c>
-      <c r="Q42" s="116" t="s">
-        <v>816</v>
-      </c>
-      <c r="R42" s="116" t="s">
-        <v>817</v>
       </c>
       <c r="S42" s="94"/>
       <c r="V42" s="60"/>
@@ -9191,30 +9224,30 @@
     </row>
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115" t="s">
+      <c r="D44" s="118"/>
+      <c r="E44" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="G44" s="115" t="s">
+      <c r="G44" s="118" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="115" t="s">
+      <c r="H44" s="118" t="s">
         <v>650</v>
       </c>
-      <c r="I44" s="115" t="s">
+      <c r="I44" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="J44" s="115" t="s">
+      <c r="J44" s="118" t="s">
         <v>652</v>
       </c>
-      <c r="K44" s="115" t="s">
+      <c r="K44" s="118" t="s">
         <v>638</v>
       </c>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="118"/>
       <c r="N44" s="82"/>
       <c r="O44" s="82"/>
       <c r="P44" s="82"/>
@@ -9228,72 +9261,72 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="112" t="s">
         <v>572</v>
       </c>
-      <c r="E45" s="111" t="s">
+      <c r="E45" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="111" t="s">
+      <c r="F45" s="112" t="s">
         <v>702</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="112" t="s">
         <v>725</v>
       </c>
-      <c r="H45" s="111" t="s">
+      <c r="H45" s="112" t="s">
         <v>726</v>
       </c>
-      <c r="I45" s="111" t="s">
+      <c r="I45" s="112" t="s">
         <v>727</v>
       </c>
-      <c r="J45" s="111" t="s">
+      <c r="J45" s="112" t="s">
         <v>728</v>
       </c>
-      <c r="K45" s="111" t="s">
+      <c r="K45" s="112" t="s">
         <v>710</v>
       </c>
-      <c r="L45" s="111" t="s">
+      <c r="L45" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="111" t="str">
+      <c r="M45" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
       <c r="S45" s="92"/>
       <c r="V45" s="60"/>
     </row>
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="F46" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="G46" s="116" t="s">
-        <v>803</v>
-      </c>
-      <c r="H46" s="116" t="s">
-        <v>818</v>
-      </c>
-      <c r="I46" s="116" t="s">
-        <v>819</v>
-      </c>
-      <c r="J46" s="116" t="s">
-        <v>820</v>
-      </c>
-      <c r="K46" s="116" t="s">
-        <v>801</v>
-      </c>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="F46" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="G46" s="119" t="s">
+        <v>799</v>
+      </c>
+      <c r="H46" s="119" t="s">
+        <v>814</v>
+      </c>
+      <c r="I46" s="119" t="s">
+        <v>815</v>
+      </c>
+      <c r="J46" s="119" t="s">
+        <v>816</v>
+      </c>
+      <c r="K46" s="119" t="s">
+        <v>797</v>
+      </c>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="83"/>
       <c r="O46" s="83"/>
       <c r="P46" s="83"/>
@@ -9324,7 +9357,7 @@
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
-      <c r="D48" s="115"/>
+      <c r="D48" s="118"/>
       <c r="E48" s="82"/>
       <c r="F48" s="82"/>
       <c r="G48" s="82"/>
@@ -9347,31 +9380,31 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="111" t="str">
+      <c r="D49" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="111"/>
-      <c r="P49" s="111"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="112"/>
+      <c r="R49" s="112"/>
       <c r="S49" s="92"/>
       <c r="V49" s="60"/>
     </row>
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
-      <c r="D50" s="116"/>
+      <c r="D50" s="119"/>
       <c r="E50" s="83"/>
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
@@ -9411,45 +9444,45 @@
     </row>
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
-      <c r="D52" s="115" t="s">
+      <c r="D52" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="118" t="s">
         <v>644</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115" t="s">
+      <c r="G52" s="118"/>
+      <c r="H52" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="I52" s="115" t="s">
+      <c r="I52" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="J52" s="115" t="s">
+      <c r="J52" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="K52" s="115" t="s">
+      <c r="K52" s="118" t="s">
         <v>649</v>
       </c>
-      <c r="L52" s="115" t="s">
+      <c r="L52" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="M52" s="115" t="s">
+      <c r="M52" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115" t="s">
+      <c r="N52" s="118"/>
+      <c r="O52" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="P52" s="115" t="s">
+      <c r="P52" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="Q52" s="115" t="s">
+      <c r="Q52" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="R52" s="115"/>
+      <c r="R52" s="118"/>
       <c r="S52" s="91"/>
       <c r="V52" s="60"/>
     </row>
@@ -9458,49 +9491,49 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="111" t="s">
+      <c r="E53" s="112" t="s">
         <v>719</v>
       </c>
-      <c r="F53" s="111" t="s">
+      <c r="F53" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="G53" s="111" t="s">
+      <c r="G53" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="111" t="s">
+      <c r="H53" s="112" t="s">
         <v>729</v>
       </c>
-      <c r="I53" s="111" t="s">
+      <c r="I53" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="111" t="s">
+      <c r="J53" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="K53" s="111" t="s">
+      <c r="K53" s="112" t="s">
         <v>724</v>
       </c>
-      <c r="L53" s="111" t="s">
+      <c r="L53" s="112" t="s">
         <v>706</v>
       </c>
-      <c r="M53" s="111" t="s">
+      <c r="M53" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="N53" s="111" t="s">
+      <c r="N53" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="O53" s="111" t="s">
+      <c r="O53" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="P53" s="111" t="s">
+      <c r="P53" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="Q53" s="111" t="s">
+      <c r="Q53" s="112" t="s">
         <v>577</v>
       </c>
-      <c r="R53" s="111" t="s">
+      <c r="R53" s="112" t="s">
         <v>183</v>
       </c>
       <c r="S53" s="92"/>
@@ -9508,45 +9541,45 @@
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
-      <c r="D54" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="E54" s="116" t="s">
-        <v>812</v>
-      </c>
-      <c r="F54" s="116" t="s">
-        <v>821</v>
-      </c>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116" t="s">
-        <v>822</v>
-      </c>
-      <c r="I54" s="116" t="s">
-        <v>823</v>
-      </c>
-      <c r="J54" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="K54" s="116" t="s">
+      <c r="D54" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="E54" s="119" t="s">
+        <v>808</v>
+      </c>
+      <c r="F54" s="119" t="s">
         <v>817</v>
       </c>
-      <c r="L54" s="116" t="s">
-        <v>789</v>
-      </c>
-      <c r="M54" s="116" t="s">
-        <v>821</v>
-      </c>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="P54" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="Q54" s="116" t="s">
-        <v>824</v>
-      </c>
-      <c r="R54" s="116"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119" t="s">
+        <v>818</v>
+      </c>
+      <c r="I54" s="119" t="s">
+        <v>819</v>
+      </c>
+      <c r="J54" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="K54" s="119" t="s">
+        <v>813</v>
+      </c>
+      <c r="L54" s="119" t="s">
+        <v>786</v>
+      </c>
+      <c r="M54" s="119" t="s">
+        <v>817</v>
+      </c>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="P54" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q54" s="119" t="s">
+        <v>820</v>
+      </c>
+      <c r="R54" s="119"/>
       <c r="S54" s="94"/>
       <c r="V54" s="60"/>
     </row>
@@ -9572,45 +9605,45 @@
     </row>
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
-      <c r="D56" s="115" t="s">
+      <c r="D56" s="118" t="s">
         <v>636</v>
       </c>
-      <c r="E56" s="115" t="s">
+      <c r="E56" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="G56" s="115" t="s">
+      <c r="G56" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="H56" s="115" t="s">
+      <c r="H56" s="118" t="s">
         <v>655</v>
       </c>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115" t="s">
+      <c r="I56" s="118"/>
+      <c r="J56" s="118" t="s">
         <v>653</v>
       </c>
-      <c r="K56" s="115" t="s">
+      <c r="K56" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="L56" s="115" t="s">
+      <c r="L56" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="M56" s="115" t="s">
+      <c r="M56" s="118" t="s">
         <v>560</v>
       </c>
-      <c r="N56" s="115" t="s">
+      <c r="N56" s="118" t="s">
         <v>656</v>
       </c>
-      <c r="O56" s="115"/>
-      <c r="P56" s="115" t="s">
+      <c r="O56" s="118"/>
+      <c r="P56" s="118" t="s">
         <v>636</v>
       </c>
-      <c r="Q56" s="115" t="s">
+      <c r="Q56" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="R56" s="115" t="s">
+      <c r="R56" s="118" t="s">
         <v>560</v>
       </c>
       <c r="S56" s="91"/>
@@ -9621,49 +9654,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="111" t="s">
+      <c r="D57" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="E57" s="111" t="s">
+      <c r="E57" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="G57" s="113" t="s">
+      <c r="G57" s="114" t="s">
         <v>577</v>
       </c>
-      <c r="H57" s="111" t="s">
+      <c r="H57" s="112" t="s">
         <v>730</v>
       </c>
-      <c r="I57" s="111" t="s">
+      <c r="I57" s="112" t="s">
         <v>572</v>
       </c>
-      <c r="J57" s="111" t="s">
+      <c r="J57" s="112" t="s">
         <v>729</v>
       </c>
-      <c r="K57" s="111" t="s">
+      <c r="K57" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="L57" s="111" t="s">
+      <c r="L57" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="M57" s="111" t="s">
+      <c r="M57" s="112" t="s">
         <v>731</v>
       </c>
-      <c r="N57" s="111" t="s">
+      <c r="N57" s="112" t="s">
         <v>732</v>
       </c>
-      <c r="O57" s="111" t="s">
+      <c r="O57" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="P57" s="111" t="s">
+      <c r="P57" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="Q57" s="111" t="s">
+      <c r="Q57" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="R57" s="111" t="s">
+      <c r="R57" s="112" t="s">
         <v>731</v>
       </c>
       <c r="S57" s="92"/>
@@ -9671,46 +9704,46 @@
     </row>
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
-      <c r="D58" s="116" t="s">
-        <v>797</v>
-      </c>
-      <c r="E58" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="F58" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="G58" s="116" t="s">
-        <v>824</v>
-      </c>
-      <c r="H58" s="116" t="s">
-        <v>825</v>
-      </c>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116" t="s">
+      <c r="D58" s="119" t="s">
+        <v>793</v>
+      </c>
+      <c r="E58" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="F58" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="G58" s="119" t="s">
+        <v>820</v>
+      </c>
+      <c r="H58" s="119" t="s">
+        <v>821</v>
+      </c>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119" t="s">
+        <v>818</v>
+      </c>
+      <c r="K58" s="119" t="s">
+        <v>819</v>
+      </c>
+      <c r="L58" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="M58" s="119" t="s">
         <v>822</v>
       </c>
-      <c r="K58" s="116" t="s">
+      <c r="N58" s="119" t="s">
         <v>823</v>
       </c>
-      <c r="L58" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="M58" s="116" t="s">
-        <v>826</v>
-      </c>
-      <c r="N58" s="116" t="s">
-        <v>827</v>
-      </c>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q58" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="R58" s="116" t="s">
-        <v>826</v>
+      <c r="O58" s="119"/>
+      <c r="P58" s="119" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q58" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="R58" s="119" t="s">
+        <v>822</v>
       </c>
       <c r="S58" s="94"/>
       <c r="V58" s="60"/>
@@ -9737,14 +9770,14 @@
     </row>
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
-      <c r="D60" s="115" t="s">
+      <c r="D60" s="118" t="s">
         <v>656</v>
       </c>
-      <c r="E60" s="115" t="s">
+      <c r="E60" s="118" t="s">
         <v>655</v>
       </c>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
       <c r="H60" s="82"/>
       <c r="I60" s="82"/>
       <c r="J60" s="82"/>
@@ -9764,44 +9797,44 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="111" t="s">
+      <c r="D61" s="112" t="s">
         <v>732</v>
       </c>
-      <c r="E61" s="111" t="s">
+      <c r="E61" s="112" t="s">
         <v>730</v>
       </c>
-      <c r="F61" s="111" t="s">
+      <c r="F61" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="G61" s="113" t="str">
+      <c r="G61" s="114" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="111"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="111"/>
-      <c r="N61" s="111"/>
-      <c r="O61" s="111"/>
-      <c r="P61" s="111"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="111"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="112"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="112"/>
+      <c r="P61" s="112"/>
+      <c r="Q61" s="112"/>
+      <c r="R61" s="112"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
-      <c r="D62" s="116" t="s">
-        <v>827</v>
-      </c>
-      <c r="E62" s="116" t="s">
-        <v>825</v>
-      </c>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
+      <c r="D62" s="119" t="s">
+        <v>823</v>
+      </c>
+      <c r="E62" s="119" t="s">
+        <v>821</v>
+      </c>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
       <c r="H62" s="83"/>
       <c r="I62" s="83"/>
       <c r="J62" s="83"/>
@@ -9838,7 +9871,7 @@
     </row>
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
-      <c r="D64" s="115"/>
+      <c r="D64" s="118"/>
       <c r="E64" s="82"/>
       <c r="F64" s="82"/>
       <c r="G64" s="82"/>
@@ -9861,31 +9894,31 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="111" t="str">
+      <c r="D65" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="111"/>
-      <c r="L65" s="111"/>
-      <c r="M65" s="111"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
-      <c r="Q65" s="111"/>
-      <c r="R65" s="111"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="112"/>
+      <c r="P65" s="112"/>
+      <c r="Q65" s="112"/>
+      <c r="R65" s="112"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
-      <c r="D66" s="116"/>
+      <c r="D66" s="119"/>
       <c r="E66" s="83"/>
       <c r="F66" s="83"/>
       <c r="G66" s="83"/>
@@ -9925,43 +9958,43 @@
     </row>
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="E68" s="115" t="s">
+      <c r="E68" s="118" t="s">
         <v>626</v>
       </c>
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="118" t="s">
         <v>657</v>
       </c>
-      <c r="G68" s="115" t="s">
+      <c r="G68" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="H68" s="115" t="s">
+      <c r="H68" s="118" t="s">
         <v>549</v>
       </c>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115" t="s">
+      <c r="I68" s="118"/>
+      <c r="J68" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="K68" s="115" t="s">
+      <c r="K68" s="118" t="s">
         <v>658</v>
       </c>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115" t="s">
+      <c r="L68" s="118"/>
+      <c r="M68" s="118" t="s">
         <v>636</v>
       </c>
-      <c r="N68" s="115" t="s">
+      <c r="N68" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="O68" s="115" t="s">
+      <c r="O68" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="P68" s="115"/>
-      <c r="Q68" s="115" t="s">
+      <c r="P68" s="118"/>
+      <c r="Q68" s="118" t="s">
         <v>561</v>
       </c>
-      <c r="R68" s="115" t="s">
+      <c r="R68" s="118" t="s">
         <v>548</v>
       </c>
       <c r="S68" s="91"/>
@@ -9972,49 +10005,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="111" t="s">
+      <c r="D69" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="111" t="s">
+      <c r="E69" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="F69" s="111" t="s">
+      <c r="F69" s="112" t="s">
         <v>733</v>
       </c>
-      <c r="G69" s="113" t="s">
+      <c r="G69" s="114" t="s">
         <v>713</v>
       </c>
-      <c r="H69" s="111" t="s">
+      <c r="H69" s="112" t="s">
         <v>734</v>
       </c>
-      <c r="I69" s="111" t="s">
+      <c r="I69" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="J69" s="111" t="s">
+      <c r="J69" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="K69" s="111" t="s">
+      <c r="K69" s="112" t="s">
         <v>735</v>
       </c>
-      <c r="L69" s="111" t="s">
+      <c r="L69" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M69" s="111" t="s">
+      <c r="M69" s="112" t="s">
         <v>707</v>
       </c>
-      <c r="N69" s="111" t="s">
+      <c r="N69" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="O69" s="111" t="s">
+      <c r="O69" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="P69" s="111" t="s">
+      <c r="P69" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="Q69" s="111" t="s">
+      <c r="Q69" s="112" t="s">
         <v>736</v>
       </c>
-      <c r="R69" s="111" t="s">
+      <c r="R69" s="112" t="s">
         <v>185</v>
       </c>
       <c r="S69" s="92"/>
@@ -10022,44 +10055,44 @@
     </row>
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
-      <c r="D70" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="E70" s="116" t="s">
-        <v>784</v>
-      </c>
-      <c r="F70" s="116" t="s">
+      <c r="D70" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="E70" s="119" t="s">
+        <v>781</v>
+      </c>
+      <c r="F70" s="119" t="s">
+        <v>824</v>
+      </c>
+      <c r="G70" s="119" t="s">
+        <v>800</v>
+      </c>
+      <c r="H70" s="119" t="s">
+        <v>825</v>
+      </c>
+      <c r="I70" s="119"/>
+      <c r="J70" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="K70" s="119" t="s">
+        <v>826</v>
+      </c>
+      <c r="L70" s="119"/>
+      <c r="M70" s="119" t="s">
+        <v>793</v>
+      </c>
+      <c r="N70" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="O70" s="119" t="s">
+        <v>827</v>
+      </c>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="119" t="s">
         <v>828</v>
       </c>
-      <c r="G70" s="116" t="s">
-        <v>804</v>
-      </c>
-      <c r="H70" s="116" t="s">
-        <v>829</v>
-      </c>
-      <c r="I70" s="116"/>
-      <c r="J70" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="K70" s="116" t="s">
-        <v>830</v>
-      </c>
-      <c r="L70" s="116"/>
-      <c r="M70" s="116" t="s">
-        <v>797</v>
-      </c>
-      <c r="N70" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="O70" s="116" t="s">
-        <v>831</v>
-      </c>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="116" t="s">
-        <v>832</v>
-      </c>
-      <c r="R70" s="116" t="s">
-        <v>811</v>
+      <c r="R70" s="119" t="s">
+        <v>807</v>
       </c>
       <c r="S70" s="94"/>
       <c r="V70" s="60"/>
@@ -10086,45 +10119,45 @@
     </row>
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
-      <c r="D72" s="115" t="s">
+      <c r="D72" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="E72" s="115" t="s">
+      <c r="E72" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="F72" s="115" t="s">
+      <c r="F72" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115" t="s">
+      <c r="G72" s="118"/>
+      <c r="H72" s="118" t="s">
         <v>608</v>
       </c>
-      <c r="I72" s="115" t="s">
+      <c r="I72" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="J72" s="115" t="s">
+      <c r="J72" s="118" t="s">
         <v>609</v>
       </c>
-      <c r="K72" s="115" t="s">
+      <c r="K72" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="L72" s="115"/>
-      <c r="M72" s="115" t="s">
+      <c r="L72" s="118"/>
+      <c r="M72" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="N72" s="115" t="s">
+      <c r="N72" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="O72" s="115" t="s">
+      <c r="O72" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="P72" s="115" t="s">
+      <c r="P72" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="Q72" s="115" t="s">
+      <c r="Q72" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="R72" s="115" t="s">
+      <c r="R72" s="118" t="s">
         <v>615</v>
       </c>
       <c r="S72" s="91"/>
@@ -10135,49 +10168,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="111" t="s">
+      <c r="D73" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="E73" s="111" t="s">
+      <c r="E73" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="F73" s="111" t="s">
+      <c r="F73" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="G73" s="111" t="s">
+      <c r="G73" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="H73" s="111" t="s">
+      <c r="H73" s="112" t="s">
         <v>564</v>
       </c>
-      <c r="I73" s="111" t="s">
+      <c r="I73" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="J73" s="111" t="s">
+      <c r="J73" s="112" t="s">
         <v>565</v>
       </c>
-      <c r="K73" s="111" t="s">
+      <c r="K73" s="112" t="s">
         <v>737</v>
       </c>
-      <c r="L73" s="111" t="s">
+      <c r="L73" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M73" s="111" t="s">
+      <c r="M73" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="N73" s="111" t="s">
+      <c r="N73" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="O73" s="111" t="s">
+      <c r="O73" s="112" t="s">
         <v>567</v>
       </c>
-      <c r="P73" s="111" t="s">
+      <c r="P73" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="Q73" s="111" t="s">
+      <c r="Q73" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="R73" s="111" t="s">
+      <c r="R73" s="112" t="s">
         <v>570</v>
       </c>
       <c r="S73" s="92"/>
@@ -10185,46 +10218,46 @@
     </row>
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
-      <c r="D74" s="116" t="s">
-        <v>833</v>
-      </c>
-      <c r="E74" s="116" t="s">
+      <c r="D74" s="119" t="s">
+        <v>829</v>
+      </c>
+      <c r="E74" s="119" t="s">
+        <v>827</v>
+      </c>
+      <c r="F74" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119" t="s">
+        <v>762</v>
+      </c>
+      <c r="I74" s="119" t="s">
+        <v>830</v>
+      </c>
+      <c r="J74" s="119" t="s">
+        <v>763</v>
+      </c>
+      <c r="K74" s="119" t="s">
+        <v>770</v>
+      </c>
+      <c r="L74" s="119"/>
+      <c r="M74" s="119" t="s">
         <v>831</v>
       </c>
-      <c r="F74" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="G74" s="116"/>
-      <c r="H74" s="116" t="s">
+      <c r="N74" s="119" t="s">
         <v>765</v>
       </c>
-      <c r="I74" s="116" t="s">
-        <v>834</v>
-      </c>
-      <c r="J74" s="116" t="s">
+      <c r="O74" s="119" t="s">
         <v>766</v>
       </c>
-      <c r="K74" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="L74" s="116"/>
-      <c r="M74" s="116" t="s">
-        <v>835</v>
-      </c>
-      <c r="N74" s="116" t="s">
+      <c r="P74" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q74" s="119" t="s">
         <v>768</v>
       </c>
-      <c r="O74" s="116" t="s">
+      <c r="R74" s="119" t="s">
         <v>769</v>
-      </c>
-      <c r="P74" s="116" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q74" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="R74" s="116" t="s">
-        <v>772</v>
       </c>
       <c r="S74" s="94"/>
       <c r="V74" s="60"/>
@@ -10251,43 +10284,43 @@
     </row>
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
-      <c r="D76" s="115" t="s">
+      <c r="D76" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="E76" s="115" t="s">
+      <c r="E76" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115" t="s">
+      <c r="F76" s="118"/>
+      <c r="G76" s="118" t="s">
         <v>747</v>
       </c>
-      <c r="H76" s="115" t="s">
+      <c r="H76" s="118" t="s">
         <v>553</v>
       </c>
-      <c r="I76" s="115" t="s">
+      <c r="I76" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="J76" s="115" t="s">
+      <c r="J76" s="118" t="s">
         <v>662</v>
       </c>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115" t="s">
+      <c r="K76" s="118"/>
+      <c r="L76" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="M76" s="115" t="s">
+      <c r="M76" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="N76" s="115" t="s">
+      <c r="N76" s="118" t="s">
         <v>662</v>
       </c>
-      <c r="O76" s="115" t="s">
+      <c r="O76" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="P76" s="115"/>
-      <c r="Q76" s="115" t="s">
+      <c r="P76" s="118"/>
+      <c r="Q76" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="R76" s="115" t="s">
+      <c r="R76" s="118" t="s">
         <v>663</v>
       </c>
       <c r="S76" s="91"/>
@@ -10298,49 +10331,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="111" t="s">
+      <c r="D77" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="E77" s="111" t="s">
+      <c r="E77" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="F77" s="111" t="s">
+      <c r="F77" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="113" t="s">
+      <c r="G77" s="114" t="s">
         <v>580</v>
       </c>
-      <c r="H77" s="111" t="s">
+      <c r="H77" s="112" t="s">
         <v>578</v>
       </c>
-      <c r="I77" s="111" t="s">
+      <c r="I77" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="J77" s="111" t="s">
+      <c r="J77" s="112" t="s">
         <v>582</v>
       </c>
-      <c r="K77" s="111" t="s">
+      <c r="K77" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="L77" s="111" t="s">
+      <c r="L77" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="M77" s="111" t="s">
+      <c r="M77" s="112" t="s">
         <v>581</v>
       </c>
-      <c r="N77" s="111" t="s">
+      <c r="N77" s="112" t="s">
         <v>582</v>
       </c>
-      <c r="O77" s="111" t="s">
+      <c r="O77" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="P77" s="111" t="s">
+      <c r="P77" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="Q77" s="111" t="s">
+      <c r="Q77" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="R77" s="111" t="s">
+      <c r="R77" s="112" t="s">
         <v>188</v>
       </c>
       <c r="S77" s="92"/>
@@ -10348,44 +10381,44 @@
     </row>
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
-      <c r="D78" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="E78" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116" t="s">
-        <v>836</v>
-      </c>
-      <c r="H78" s="116" t="s">
-        <v>831</v>
-      </c>
-      <c r="I78" s="116" t="s">
-        <v>837</v>
-      </c>
-      <c r="J78" s="116" t="s">
-        <v>838</v>
-      </c>
-      <c r="K78" s="116"/>
-      <c r="L78" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="M78" s="116" t="s">
-        <v>837</v>
-      </c>
-      <c r="N78" s="116" t="s">
-        <v>838</v>
-      </c>
-      <c r="O78" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="P78" s="116"/>
-      <c r="Q78" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="R78" s="116" t="s">
-        <v>839</v>
+      <c r="D78" s="119" t="s">
+        <v>770</v>
+      </c>
+      <c r="E78" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="F78" s="119"/>
+      <c r="G78" s="119" t="s">
+        <v>832</v>
+      </c>
+      <c r="H78" s="119" t="s">
+        <v>827</v>
+      </c>
+      <c r="I78" s="119" t="s">
+        <v>833</v>
+      </c>
+      <c r="J78" s="119" t="s">
+        <v>834</v>
+      </c>
+      <c r="K78" s="119"/>
+      <c r="L78" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="M78" s="119" t="s">
+        <v>833</v>
+      </c>
+      <c r="N78" s="119" t="s">
+        <v>834</v>
+      </c>
+      <c r="O78" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="P78" s="119"/>
+      <c r="Q78" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="R78" s="119" t="s">
+        <v>835</v>
       </c>
       <c r="S78" s="94"/>
       <c r="V78" s="60"/>
@@ -10412,43 +10445,43 @@
     </row>
     <row r="80" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="56"/>
-      <c r="D80" s="115" t="s">
+      <c r="D80" s="118" t="s">
         <v>664</v>
       </c>
-      <c r="E80" s="115" t="s">
+      <c r="E80" s="118" t="s">
         <v>665</v>
       </c>
-      <c r="F80" s="115"/>
-      <c r="G80" s="115" t="s">
+      <c r="F80" s="118"/>
+      <c r="G80" s="118" t="s">
         <v>666</v>
       </c>
-      <c r="H80" s="115" t="s">
+      <c r="H80" s="118" t="s">
         <v>629</v>
       </c>
-      <c r="I80" s="115" t="s">
+      <c r="I80" s="118" t="s">
         <v>667</v>
       </c>
-      <c r="J80" s="115" t="s">
+      <c r="J80" s="118" t="s">
         <v>668</v>
       </c>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115" t="s">
+      <c r="K80" s="118"/>
+      <c r="L80" s="118" t="s">
         <v>556</v>
       </c>
-      <c r="M80" s="115" t="s">
+      <c r="M80" s="118" t="s">
         <v>551</v>
       </c>
-      <c r="N80" s="115"/>
-      <c r="O80" s="115" t="s">
+      <c r="N80" s="118"/>
+      <c r="O80" s="118" t="s">
         <v>303</v>
       </c>
-      <c r="P80" s="115" t="s">
+      <c r="P80" s="118" t="s">
         <v>278</v>
       </c>
-      <c r="Q80" s="115" t="s">
+      <c r="Q80" s="118" t="s">
         <v>669</v>
       </c>
-      <c r="R80" s="115" t="s">
+      <c r="R80" s="118" t="s">
         <v>670</v>
       </c>
       <c r="S80" s="91"/>
@@ -10459,49 +10492,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="111" t="s">
+      <c r="D81" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="E81" s="111" t="s">
+      <c r="E81" s="112" t="s">
         <v>584</v>
       </c>
-      <c r="F81" s="111" t="s">
+      <c r="F81" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="G81" s="111" t="s">
+      <c r="G81" s="112" t="s">
         <v>585</v>
       </c>
-      <c r="H81" s="111" t="s">
+      <c r="H81" s="112" t="s">
         <v>586</v>
       </c>
-      <c r="I81" s="111" t="s">
+      <c r="I81" s="112" t="s">
         <v>587</v>
       </c>
-      <c r="J81" s="111" t="s">
+      <c r="J81" s="112" t="s">
         <v>588</v>
       </c>
-      <c r="K81" s="111" t="s">
+      <c r="K81" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="L81" s="111" t="s">
+      <c r="L81" s="112" t="s">
         <v>589</v>
       </c>
-      <c r="M81" s="111" t="s">
+      <c r="M81" s="112" t="s">
         <v>574</v>
       </c>
-      <c r="N81" s="111" t="s">
+      <c r="N81" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="O81" s="111" t="s">
+      <c r="O81" s="112" t="s">
         <v>738</v>
       </c>
-      <c r="P81" s="111" t="s">
+      <c r="P81" s="112" t="s">
         <v>739</v>
       </c>
-      <c r="Q81" s="111" t="s">
+      <c r="Q81" s="112" t="s">
         <v>740</v>
       </c>
-      <c r="R81" s="111" t="s">
+      <c r="R81" s="112" t="s">
         <v>741</v>
       </c>
       <c r="S81" s="92"/>
@@ -10509,44 +10542,44 @@
     </row>
     <row r="82" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="58"/>
-      <c r="D82" s="116" t="s">
+      <c r="D82" s="119" t="s">
+        <v>836</v>
+      </c>
+      <c r="E82" s="119" t="s">
+        <v>837</v>
+      </c>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119" t="s">
+        <v>838</v>
+      </c>
+      <c r="H82" s="119" t="s">
+        <v>784</v>
+      </c>
+      <c r="I82" s="119" t="s">
+        <v>839</v>
+      </c>
+      <c r="J82" s="119" t="s">
         <v>840</v>
       </c>
-      <c r="E82" s="116" t="s">
+      <c r="K82" s="119"/>
+      <c r="L82" s="119" t="s">
         <v>841</v>
       </c>
-      <c r="F82" s="116"/>
-      <c r="G82" s="116" t="s">
+      <c r="M82" s="119" t="s">
+        <v>792</v>
+      </c>
+      <c r="N82" s="119"/>
+      <c r="O82" s="119" t="s">
         <v>842</v>
       </c>
-      <c r="H82" s="116" t="s">
-        <v>787</v>
-      </c>
-      <c r="I82" s="116" t="s">
+      <c r="P82" s="119" t="s">
         <v>843</v>
       </c>
-      <c r="J82" s="116" t="s">
+      <c r="Q82" s="119" t="s">
         <v>844</v>
       </c>
-      <c r="K82" s="116"/>
-      <c r="L82" s="116" t="s">
+      <c r="R82" s="119" t="s">
         <v>845</v>
-      </c>
-      <c r="M82" s="116" t="s">
-        <v>795</v>
-      </c>
-      <c r="N82" s="116"/>
-      <c r="O82" s="116" t="s">
-        <v>846</v>
-      </c>
-      <c r="P82" s="116" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q82" s="116" t="s">
-        <v>848</v>
-      </c>
-      <c r="R82" s="116" t="s">
-        <v>849</v>
       </c>
       <c r="S82" s="94"/>
       <c r="V82" s="60"/>
@@ -10573,8 +10606,8 @@
     </row>
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
-      <c r="D84" s="115"/>
-      <c r="E84" s="115"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
       <c r="F84" s="82"/>
       <c r="G84" s="82"/>
       <c r="H84" s="82"/>
@@ -10596,34 +10629,34 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="111" t="s">
+      <c r="D85" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E85" s="111" t="str">
+      <c r="E85" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="F85" s="111"/>
-      <c r="G85" s="113"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="111"/>
-      <c r="J85" s="111"/>
-      <c r="K85" s="111"/>
-      <c r="L85" s="111"/>
-      <c r="M85" s="111"/>
-      <c r="N85" s="111"/>
-      <c r="O85" s="111"/>
-      <c r="P85" s="111"/>
-      <c r="Q85" s="111"/>
-      <c r="R85" s="111"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="112"/>
+      <c r="K85" s="112"/>
+      <c r="L85" s="112"/>
+      <c r="M85" s="112"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="112"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="112"/>
+      <c r="R85" s="112"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
       <c r="F86" s="83"/>
       <c r="G86" s="83"/>
       <c r="H86" s="83"/>
@@ -10662,7 +10695,7 @@
     </row>
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
-      <c r="D88" s="115"/>
+      <c r="D88" s="118"/>
       <c r="E88" s="82"/>
       <c r="F88" s="82"/>
       <c r="G88" s="82"/>
@@ -10685,31 +10718,31 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="111" t="str">
+      <c r="D89" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E89" s="111"/>
-      <c r="F89" s="111"/>
-      <c r="G89" s="111"/>
-      <c r="H89" s="111"/>
-      <c r="I89" s="111"/>
-      <c r="J89" s="111"/>
-      <c r="K89" s="111"/>
-      <c r="L89" s="111"/>
-      <c r="M89" s="111"/>
-      <c r="N89" s="111"/>
-      <c r="O89" s="111"/>
-      <c r="P89" s="111"/>
-      <c r="Q89" s="111"/>
-      <c r="R89" s="111"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="112"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="112"/>
+      <c r="K89" s="112"/>
+      <c r="L89" s="112"/>
+      <c r="M89" s="112"/>
+      <c r="N89" s="112"/>
+      <c r="O89" s="112"/>
+      <c r="P89" s="112"/>
+      <c r="Q89" s="112"/>
+      <c r="R89" s="112"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
-      <c r="D90" s="116"/>
+      <c r="D90" s="119"/>
       <c r="E90" s="83"/>
       <c r="F90" s="83"/>
       <c r="G90" s="83"/>
@@ -10749,45 +10782,45 @@
     </row>
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
-      <c r="D92" s="115" t="s">
+      <c r="D92" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="E92" s="115" t="s">
+      <c r="E92" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="F92" s="115" t="s">
+      <c r="F92" s="118" t="s">
         <v>637</v>
       </c>
-      <c r="G92" s="115" t="s">
+      <c r="G92" s="118" t="s">
         <v>558</v>
       </c>
-      <c r="H92" s="115"/>
-      <c r="I92" s="115" t="s">
+      <c r="H92" s="118"/>
+      <c r="I92" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="J92" s="115" t="s">
+      <c r="J92" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="K92" s="115" t="s">
+      <c r="K92" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="L92" s="115" t="s">
+      <c r="L92" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="M92" s="115" t="s">
+      <c r="M92" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="N92" s="115" t="s">
+      <c r="N92" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="O92" s="115" t="s">
+      <c r="O92" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="P92" s="115" t="s">
+      <c r="P92" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="Q92" s="115"/>
-      <c r="R92" s="115" t="s">
+      <c r="Q92" s="118"/>
+      <c r="R92" s="118" t="s">
         <v>553</v>
       </c>
       <c r="S92" s="91"/>
@@ -10798,49 +10831,49 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="111" t="s">
+      <c r="D93" s="112" t="s">
         <v>590</v>
       </c>
-      <c r="E93" s="111" t="s">
+      <c r="E93" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="111" t="s">
+      <c r="F93" s="112" t="s">
         <v>575</v>
       </c>
-      <c r="G93" s="111" t="s">
+      <c r="G93" s="112" t="s">
         <v>591</v>
       </c>
-      <c r="H93" s="111" t="s">
+      <c r="H93" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="I93" s="111" t="s">
+      <c r="I93" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="J93" s="111" t="s">
+      <c r="J93" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="K93" s="111" t="s">
+      <c r="K93" s="112" t="s">
         <v>567</v>
       </c>
-      <c r="L93" s="111" t="s">
+      <c r="L93" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="M93" s="111" t="s">
+      <c r="M93" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="N93" s="111" t="s">
+      <c r="N93" s="112" t="s">
         <v>570</v>
       </c>
-      <c r="O93" s="111" t="s">
+      <c r="O93" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="P93" s="111" t="s">
+      <c r="P93" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="Q93" s="111" t="s">
+      <c r="Q93" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="R93" s="111" t="s">
+      <c r="R93" s="112" t="s">
         <v>578</v>
       </c>
       <c r="S93" s="92"/>
@@ -10848,46 +10881,46 @@
     </row>
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
-      <c r="D94" s="116" t="s">
-        <v>850</v>
-      </c>
-      <c r="E94" s="116" t="s">
-        <v>851</v>
-      </c>
-      <c r="F94" s="116" t="s">
-        <v>800</v>
-      </c>
-      <c r="G94" s="116" t="s">
-        <v>852</v>
-      </c>
-      <c r="H94" s="116"/>
-      <c r="I94" s="116" t="s">
-        <v>835</v>
-      </c>
-      <c r="J94" s="116" t="s">
+      <c r="D94" s="119" t="s">
+        <v>846</v>
+      </c>
+      <c r="E94" s="119" t="s">
+        <v>847</v>
+      </c>
+      <c r="F94" s="119" t="s">
+        <v>796</v>
+      </c>
+      <c r="G94" s="119" t="s">
+        <v>848</v>
+      </c>
+      <c r="H94" s="119"/>
+      <c r="I94" s="119" t="s">
+        <v>831</v>
+      </c>
+      <c r="J94" s="119" t="s">
+        <v>765</v>
+      </c>
+      <c r="K94" s="119" t="s">
+        <v>766</v>
+      </c>
+      <c r="L94" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="M94" s="119" t="s">
         <v>768</v>
       </c>
-      <c r="K94" s="116" t="s">
+      <c r="N94" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="L94" s="116" t="s">
+      <c r="O94" s="119" t="s">
         <v>770</v>
       </c>
-      <c r="M94" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="N94" s="116" t="s">
-        <v>772</v>
-      </c>
-      <c r="O94" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="P94" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q94" s="116"/>
-      <c r="R94" s="116" t="s">
-        <v>831</v>
+      <c r="P94" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q94" s="119"/>
+      <c r="R94" s="119" t="s">
+        <v>827</v>
       </c>
       <c r="S94" s="94"/>
       <c r="V94" s="60"/>
@@ -10914,35 +10947,35 @@
     </row>
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
-      <c r="D96" s="115" t="s">
+      <c r="D96" s="118" t="s">
         <v>748</v>
       </c>
-      <c r="E96" s="115" t="s">
+      <c r="E96" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="F96" s="115" t="s">
+      <c r="F96" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="G96" s="115" t="s">
+      <c r="G96" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="H96" s="115" t="s">
+      <c r="H96" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="I96" s="115" t="s">
+      <c r="I96" s="118" t="s">
         <v>750</v>
       </c>
-      <c r="J96" s="115" t="s">
+      <c r="J96" s="118" t="s">
         <v>555</v>
       </c>
-      <c r="K96" s="115" t="s">
+      <c r="K96" s="118" t="s">
         <v>608</v>
       </c>
-      <c r="L96" s="115" t="s">
+      <c r="L96" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="M96" s="115"/>
-      <c r="N96" s="115"/>
+      <c r="M96" s="118"/>
+      <c r="N96" s="118"/>
       <c r="O96" s="82"/>
       <c r="P96" s="82"/>
       <c r="Q96" s="82"/>
@@ -10955,79 +10988,79 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="111" t="s">
+      <c r="D97" s="112" t="s">
         <v>592</v>
       </c>
-      <c r="E97" s="111" t="s">
+      <c r="E97" s="112" t="s">
         <v>593</v>
       </c>
-      <c r="F97" s="111" t="s">
+      <c r="F97" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="G97" s="113" t="s">
+      <c r="G97" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="H97" s="111" t="s">
+      <c r="H97" s="112" t="s">
         <v>590</v>
       </c>
-      <c r="I97" s="111" t="s">
+      <c r="I97" s="112" t="s">
         <v>594</v>
       </c>
-      <c r="J97" s="111" t="s">
+      <c r="J97" s="112" t="s">
         <v>590</v>
       </c>
-      <c r="K97" s="111" t="s">
+      <c r="K97" s="112" t="s">
         <v>564</v>
       </c>
-      <c r="L97" s="111" t="s">
+      <c r="L97" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="M97" s="111" t="s">
+      <c r="M97" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="N97" s="111" t="str">
+      <c r="N97" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O97" s="111"/>
-      <c r="P97" s="111"/>
-      <c r="Q97" s="111"/>
-      <c r="R97" s="111"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="112"/>
+      <c r="R97" s="112"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
-      <c r="D98" s="116" t="s">
-        <v>853</v>
-      </c>
-      <c r="E98" s="116" t="s">
-        <v>854</v>
-      </c>
-      <c r="F98" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="G98" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="H98" s="116" t="s">
+      <c r="D98" s="119" t="s">
+        <v>849</v>
+      </c>
+      <c r="E98" s="119" t="s">
         <v>850</v>
       </c>
-      <c r="I98" s="116" t="s">
-        <v>855</v>
-      </c>
-      <c r="J98" s="116" t="s">
-        <v>850</v>
-      </c>
-      <c r="K98" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="L98" s="116" t="s">
-        <v>834</v>
-      </c>
-      <c r="M98" s="116"/>
-      <c r="N98" s="116"/>
+      <c r="F98" s="119" t="s">
+        <v>770</v>
+      </c>
+      <c r="G98" s="119" t="s">
+        <v>768</v>
+      </c>
+      <c r="H98" s="119" t="s">
+        <v>846</v>
+      </c>
+      <c r="I98" s="119" t="s">
+        <v>851</v>
+      </c>
+      <c r="J98" s="119" t="s">
+        <v>846</v>
+      </c>
+      <c r="K98" s="119" t="s">
+        <v>762</v>
+      </c>
+      <c r="L98" s="119" t="s">
+        <v>830</v>
+      </c>
+      <c r="M98" s="119"/>
+      <c r="N98" s="119"/>
       <c r="O98" s="83"/>
       <c r="P98" s="83"/>
       <c r="Q98" s="83"/>
@@ -11057,7 +11090,7 @@
     </row>
     <row r="100" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="56"/>
-      <c r="D100" s="115"/>
+      <c r="D100" s="118"/>
       <c r="E100" s="82"/>
       <c r="F100" s="82"/>
       <c r="G100" s="82"/>
@@ -11080,31 +11113,31 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="111" t="str">
+      <c r="D101" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="111"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="111"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="112"/>
+      <c r="G101" s="112"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="112"/>
+      <c r="K101" s="112"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="112"/>
+      <c r="N101" s="112"/>
+      <c r="O101" s="112"/>
+      <c r="P101" s="112"/>
+      <c r="Q101" s="112"/>
+      <c r="R101" s="112"/>
       <c r="S101" s="92"/>
       <c r="V101" s="60"/>
     </row>
     <row r="102" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="58"/>
-      <c r="D102" s="116"/>
+      <c r="D102" s="119"/>
       <c r="E102" s="83"/>
       <c r="F102" s="83"/>
       <c r="G102" s="83"/>
@@ -11144,45 +11177,45 @@
     </row>
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
-      <c r="D104" s="115" t="s">
+      <c r="D104" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="E104" s="115" t="s">
+      <c r="E104" s="118" t="s">
         <v>671</v>
       </c>
-      <c r="F104" s="115" t="s">
+      <c r="F104" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="G104" s="115" t="s">
+      <c r="G104" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="H104" s="115" t="s">
+      <c r="H104" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="I104" s="115" t="s">
+      <c r="I104" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="J104" s="115" t="s">
+      <c r="J104" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="K104" s="115" t="s">
+      <c r="K104" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="L104" s="115"/>
-      <c r="M104" s="115" t="s">
+      <c r="L104" s="118"/>
+      <c r="M104" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="N104" s="115" t="s">
+      <c r="N104" s="118" t="s">
         <v>310</v>
       </c>
-      <c r="O104" s="115" t="s">
+      <c r="O104" s="118" t="s">
         <v>559</v>
       </c>
-      <c r="P104" s="115" t="s">
+      <c r="P104" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="Q104" s="115"/>
-      <c r="R104" s="115" t="s">
+      <c r="Q104" s="118"/>
+      <c r="R104" s="118" t="s">
         <v>300</v>
       </c>
       <c r="S104" s="91"/>
@@ -11193,49 +11226,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="111" t="s">
+      <c r="D105" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="E105" s="111" t="s">
+      <c r="E105" s="112" t="s">
         <v>742</v>
       </c>
-      <c r="F105" s="111" t="s">
+      <c r="F105" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="G105" s="113" t="s">
+      <c r="G105" s="114" t="s">
         <v>567</v>
       </c>
-      <c r="H105" s="111" t="s">
+      <c r="H105" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="I105" s="111" t="s">
+      <c r="I105" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="J105" s="111" t="s">
+      <c r="J105" s="112" t="s">
         <v>570</v>
       </c>
-      <c r="K105" s="111" t="s">
+      <c r="K105" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="L105" s="111" t="s">
+      <c r="L105" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M105" s="111" t="s">
+      <c r="M105" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="N105" s="111" t="s">
+      <c r="N105" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="O105" s="114" t="s">
+      <c r="O105" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="P105" s="111" t="s">
+      <c r="P105" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="Q105" s="111" t="s">
+      <c r="Q105" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="R105" s="111" t="s">
+      <c r="R105" s="112" t="s">
         <v>191</v>
       </c>
       <c r="S105" s="92"/>
@@ -11243,46 +11276,46 @@
     </row>
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
-      <c r="D106" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="E106" s="116" t="s">
-        <v>856</v>
-      </c>
-      <c r="F106" s="116" t="s">
+      <c r="D106" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="E106" s="119" t="s">
+        <v>852</v>
+      </c>
+      <c r="F106" s="119" t="s">
+        <v>765</v>
+      </c>
+      <c r="G106" s="119" t="s">
+        <v>766</v>
+      </c>
+      <c r="H106" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="I106" s="119" t="s">
         <v>768</v>
       </c>
-      <c r="G106" s="116" t="s">
+      <c r="J106" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="H106" s="116" t="s">
+      <c r="K106" s="119" t="s">
         <v>770</v>
       </c>
-      <c r="I106" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="J106" s="116" t="s">
-        <v>772</v>
-      </c>
-      <c r="K106" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="L106" s="116"/>
-      <c r="M106" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="N106" s="116" t="s">
-        <v>857</v>
-      </c>
-      <c r="O106" s="116" t="s">
-        <v>858</v>
-      </c>
-      <c r="P106" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q106" s="116"/>
-      <c r="R106" s="116" t="s">
-        <v>793</v>
+      <c r="L106" s="119"/>
+      <c r="M106" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="N106" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="O106" s="119" t="s">
+        <v>854</v>
+      </c>
+      <c r="P106" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q106" s="119"/>
+      <c r="R106" s="119" t="s">
+        <v>790</v>
       </c>
       <c r="S106" s="94"/>
       <c r="V106" s="60"/>
@@ -11309,45 +11342,45 @@
     </row>
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
-      <c r="D108" s="115" t="s">
+      <c r="D108" s="118" t="s">
         <v>310</v>
       </c>
-      <c r="E108" s="115" t="s">
+      <c r="E108" s="118" t="s">
         <v>654</v>
       </c>
-      <c r="F108" s="115" t="s">
+      <c r="F108" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="G108" s="115"/>
-      <c r="H108" s="115" t="s">
+      <c r="G108" s="118"/>
+      <c r="H108" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="I108" s="115" t="s">
+      <c r="I108" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="J108" s="115" t="s">
+      <c r="J108" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="K108" s="115" t="s">
+      <c r="K108" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="L108" s="115"/>
-      <c r="M108" s="115" t="s">
+      <c r="L108" s="118"/>
+      <c r="M108" s="118" t="s">
         <v>300</v>
       </c>
-      <c r="N108" s="115" t="s">
+      <c r="N108" s="118" t="s">
         <v>548</v>
       </c>
-      <c r="O108" s="115" t="s">
+      <c r="O108" s="118" t="s">
         <v>673</v>
       </c>
-      <c r="P108" s="115" t="s">
+      <c r="P108" s="118" t="s">
         <v>673</v>
       </c>
-      <c r="Q108" s="115" t="s">
+      <c r="Q108" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="R108" s="115"/>
+      <c r="R108" s="118"/>
       <c r="S108" s="91"/>
       <c r="V108" s="60"/>
     </row>
@@ -11356,49 +11389,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="111" t="s">
+      <c r="D109" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="111" t="s">
+      <c r="E109" s="112" t="s">
         <v>577</v>
       </c>
-      <c r="F109" s="111" t="s">
+      <c r="F109" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="G109" s="111" t="s">
+      <c r="G109" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="I109" s="111" t="s">
+      <c r="I109" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="J109" s="111" t="s">
+      <c r="J109" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="111" t="s">
+      <c r="K109" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="L109" s="111" t="s">
+      <c r="L109" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="M109" s="111" t="s">
+      <c r="M109" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="N109" s="111" t="s">
+      <c r="N109" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="O109" s="111" t="s">
+      <c r="O109" s="112" t="s">
         <v>598</v>
       </c>
-      <c r="P109" s="111" t="s">
+      <c r="P109" s="112" t="s">
         <v>598</v>
       </c>
-      <c r="Q109" s="111" t="s">
+      <c r="Q109" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="R109" s="111" t="s">
+      <c r="R109" s="112" t="s">
         <v>186</v>
       </c>
       <c r="S109" s="92"/>
@@ -11406,45 +11439,45 @@
     </row>
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
-      <c r="D110" s="116" t="s">
+      <c r="D110" s="119" t="s">
+        <v>853</v>
+      </c>
+      <c r="E110" s="119" t="s">
+        <v>820</v>
+      </c>
+      <c r="F110" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="G110" s="119"/>
+      <c r="H110" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="I110" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="J110" s="119" t="s">
+        <v>856</v>
+      </c>
+      <c r="K110" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="L110" s="119"/>
+      <c r="M110" s="119" t="s">
+        <v>790</v>
+      </c>
+      <c r="N110" s="119" t="s">
+        <v>807</v>
+      </c>
+      <c r="O110" s="119" t="s">
         <v>857</v>
       </c>
-      <c r="E110" s="116" t="s">
-        <v>824</v>
-      </c>
-      <c r="F110" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="G110" s="116"/>
-      <c r="H110" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="I110" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="J110" s="116" t="s">
-        <v>860</v>
-      </c>
-      <c r="K110" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="L110" s="116"/>
-      <c r="M110" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="N110" s="116" t="s">
-        <v>811</v>
-      </c>
-      <c r="O110" s="116" t="s">
-        <v>861</v>
-      </c>
-      <c r="P110" s="116" t="s">
-        <v>861</v>
-      </c>
-      <c r="Q110" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="R110" s="116"/>
+      <c r="P110" s="119" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q110" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="R110" s="119"/>
       <c r="S110" s="94"/>
       <c r="V110" s="60"/>
     </row>
@@ -11470,36 +11503,36 @@
     </row>
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
-      <c r="D112" s="115" t="s">
+      <c r="D112" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E112" s="115" t="s">
+      <c r="E112" s="118" t="s">
         <v>674</v>
       </c>
-      <c r="F112" s="115" t="s">
+      <c r="F112" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="G112" s="115" t="s">
+      <c r="G112" s="118" t="s">
         <v>625</v>
       </c>
-      <c r="H112" s="115" t="s">
+      <c r="H112" s="118" t="s">
         <v>626</v>
       </c>
-      <c r="I112" s="115"/>
-      <c r="J112" s="115" t="s">
+      <c r="I112" s="118"/>
+      <c r="J112" s="118" t="s">
         <v>675</v>
       </c>
-      <c r="K112" s="115" t="s">
+      <c r="K112" s="118" t="s">
         <v>676</v>
       </c>
-      <c r="L112" s="115" t="s">
+      <c r="L112" s="118" t="s">
         <v>632</v>
       </c>
-      <c r="M112" s="115" t="s">
+      <c r="M112" s="118" t="s">
         <v>677</v>
       </c>
-      <c r="N112" s="115"/>
-      <c r="O112" s="115"/>
+      <c r="N112" s="118"/>
+      <c r="O112" s="118"/>
       <c r="P112" s="82"/>
       <c r="Q112" s="82"/>
       <c r="R112" s="82"/>
@@ -11511,82 +11544,82 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="111" t="s">
+      <c r="D113" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="111" t="s">
+      <c r="E113" s="112" t="s">
         <v>743</v>
       </c>
-      <c r="F113" s="111" t="s">
+      <c r="F113" s="112" t="s">
         <v>187</v>
       </c>
-      <c r="G113" s="111" t="s">
+      <c r="G113" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="H113" s="111" t="s">
+      <c r="H113" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="I113" s="111" t="s">
+      <c r="I113" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="J113" s="111" t="s">
+      <c r="J113" s="112" t="s">
         <v>744</v>
       </c>
-      <c r="K113" s="111" t="s">
+      <c r="K113" s="112" t="s">
         <v>745</v>
       </c>
-      <c r="L113" s="111" t="s">
+      <c r="L113" s="112" t="s">
         <v>703</v>
       </c>
-      <c r="M113" s="111" t="s">
+      <c r="M113" s="112" t="s">
         <v>746</v>
       </c>
-      <c r="N113" s="111" t="s">
+      <c r="N113" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="O113" s="114" t="str">
+      <c r="O113" s="115" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="P113" s="111"/>
-      <c r="Q113" s="111"/>
-      <c r="R113" s="111"/>
+      <c r="P113" s="112"/>
+      <c r="Q113" s="112"/>
+      <c r="R113" s="112"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
-      <c r="D114" s="116" t="s">
+      <c r="D114" s="119" t="s">
+        <v>858</v>
+      </c>
+      <c r="E114" s="119" t="s">
+        <v>859</v>
+      </c>
+      <c r="F114" s="119" t="s">
+        <v>779</v>
+      </c>
+      <c r="G114" s="119" t="s">
+        <v>780</v>
+      </c>
+      <c r="H114" s="119" t="s">
+        <v>781</v>
+      </c>
+      <c r="I114" s="119"/>
+      <c r="J114" s="119" t="s">
+        <v>860</v>
+      </c>
+      <c r="K114" s="119" t="s">
+        <v>861</v>
+      </c>
+      <c r="L114" s="119" t="s">
+        <v>787</v>
+      </c>
+      <c r="M114" s="119" t="s">
         <v>862</v>
       </c>
-      <c r="E114" s="116" t="s">
-        <v>863</v>
-      </c>
-      <c r="F114" s="116" t="s">
-        <v>782</v>
-      </c>
-      <c r="G114" s="116" t="s">
-        <v>783</v>
-      </c>
-      <c r="H114" s="116" t="s">
-        <v>784</v>
-      </c>
-      <c r="I114" s="116"/>
-      <c r="J114" s="116" t="s">
-        <v>864</v>
-      </c>
-      <c r="K114" s="116" t="s">
-        <v>865</v>
-      </c>
-      <c r="L114" s="116" t="s">
-        <v>790</v>
-      </c>
-      <c r="M114" s="116" t="s">
-        <v>866</v>
-      </c>
-      <c r="N114" s="116"/>
-      <c r="O114" s="116"/>
+      <c r="N114" s="119"/>
+      <c r="O114" s="119"/>
       <c r="P114" s="83"/>
       <c r="Q114" s="83"/>
       <c r="R114" s="83"/>
@@ -11615,7 +11648,7 @@
     </row>
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
-      <c r="D116" s="115"/>
+      <c r="D116" s="118"/>
       <c r="E116" s="82"/>
       <c r="F116" s="82"/>
       <c r="G116" s="82"/>
@@ -11638,31 +11671,31 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="111" t="str">
+      <c r="D117" s="112" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E117" s="111"/>
-      <c r="F117" s="113"/>
-      <c r="G117" s="113"/>
-      <c r="H117" s="111"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="111"/>
-      <c r="L117" s="111"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="111"/>
-      <c r="O117" s="111"/>
-      <c r="P117" s="111"/>
-      <c r="Q117" s="111"/>
-      <c r="R117" s="111"/>
+      <c r="E117" s="112"/>
+      <c r="F117" s="114"/>
+      <c r="G117" s="114"/>
+      <c r="H117" s="112"/>
+      <c r="I117" s="112"/>
+      <c r="J117" s="112"/>
+      <c r="K117" s="112"/>
+      <c r="L117" s="112"/>
+      <c r="M117" s="112"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="112"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="112"/>
+      <c r="R117" s="112"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
-      <c r="D118" s="116"/>
+      <c r="D118" s="119"/>
       <c r="E118" s="83"/>
       <c r="F118" s="83"/>
       <c r="G118" s="83"/>
@@ -11702,47 +11735,47 @@
     </row>
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
-      <c r="D120" s="115" t="s">
+      <c r="D120" s="118" t="s">
         <v>554</v>
       </c>
-      <c r="E120" s="115" t="s">
+      <c r="E120" s="118" t="s">
         <v>678</v>
       </c>
-      <c r="F120" s="115" t="s">
+      <c r="F120" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="G120" s="115" t="s">
+      <c r="G120" s="118" t="s">
         <v>612</v>
       </c>
-      <c r="H120" s="115" t="s">
+      <c r="H120" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="I120" s="115" t="s">
+      <c r="I120" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="J120" s="115" t="s">
+      <c r="J120" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="K120" s="115" t="s">
+      <c r="K120" s="118" t="s">
         <v>616</v>
       </c>
-      <c r="L120" s="115" t="s">
+      <c r="L120" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="M120" s="115"/>
-      <c r="N120" s="115" t="s">
+      <c r="M120" s="118"/>
+      <c r="N120" s="118" t="s">
         <v>634</v>
       </c>
-      <c r="O120" s="115" t="s">
+      <c r="O120" s="118" t="s">
         <v>678</v>
       </c>
-      <c r="P120" s="115" t="s">
+      <c r="P120" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="Q120" s="115" t="s">
+      <c r="Q120" s="118" t="s">
         <v>679</v>
       </c>
-      <c r="R120" s="115"/>
+      <c r="R120" s="118"/>
       <c r="S120" s="91"/>
       <c r="V120" s="60"/>
     </row>
@@ -11751,49 +11784,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="111" t="s">
+      <c r="D121" s="112" t="s">
         <v>576</v>
       </c>
-      <c r="E121" s="111" t="s">
+      <c r="E121" s="112" t="s">
         <v>599</v>
       </c>
-      <c r="F121" s="111" t="s">
+      <c r="F121" s="112" t="s">
         <v>566</v>
       </c>
-      <c r="G121" s="113" t="s">
+      <c r="G121" s="114" t="s">
         <v>567</v>
       </c>
-      <c r="H121" s="111" t="s">
+      <c r="H121" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="I121" s="111" t="s">
+      <c r="I121" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="J121" s="111" t="s">
+      <c r="J121" s="112" t="s">
         <v>570</v>
       </c>
-      <c r="K121" s="111" t="s">
+      <c r="K121" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="L121" s="111" t="s">
+      <c r="L121" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="M121" s="111" t="s">
+      <c r="M121" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="N121" s="111" t="s">
+      <c r="N121" s="112" t="s">
         <v>573</v>
       </c>
-      <c r="O121" s="111" t="s">
+      <c r="O121" s="112" t="s">
         <v>599</v>
       </c>
-      <c r="P121" s="111" t="s">
+      <c r="P121" s="112" t="s">
         <v>597</v>
       </c>
-      <c r="Q121" s="111" t="s">
+      <c r="Q121" s="112" t="s">
         <v>600</v>
       </c>
-      <c r="R121" s="111" t="s">
+      <c r="R121" s="112" t="s">
         <v>595</v>
       </c>
       <c r="S121" s="92"/>
@@ -11801,47 +11834,47 @@
     </row>
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
-      <c r="D122" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="E122" s="116" t="s">
-        <v>867</v>
-      </c>
-      <c r="F122" s="116" t="s">
+      <c r="D122" s="119" t="s">
+        <v>805</v>
+      </c>
+      <c r="E122" s="119" t="s">
+        <v>863</v>
+      </c>
+      <c r="F122" s="119" t="s">
+        <v>765</v>
+      </c>
+      <c r="G122" s="119" t="s">
+        <v>766</v>
+      </c>
+      <c r="H122" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="I122" s="119" t="s">
         <v>768</v>
       </c>
-      <c r="G122" s="116" t="s">
+      <c r="J122" s="119" t="s">
         <v>769</v>
       </c>
-      <c r="H122" s="116" t="s">
+      <c r="K122" s="119" t="s">
         <v>770</v>
       </c>
-      <c r="I122" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="J122" s="116" t="s">
-        <v>772</v>
-      </c>
-      <c r="K122" s="116" t="s">
-        <v>773</v>
-      </c>
-      <c r="L122" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="M122" s="116"/>
-      <c r="N122" s="116" t="s">
-        <v>792</v>
-      </c>
-      <c r="O122" s="116" t="s">
-        <v>867</v>
-      </c>
-      <c r="P122" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q122" s="116" t="s">
-        <v>868</v>
-      </c>
-      <c r="R122" s="116"/>
+      <c r="L122" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="M122" s="119"/>
+      <c r="N122" s="119" t="s">
+        <v>789</v>
+      </c>
+      <c r="O122" s="119" t="s">
+        <v>863</v>
+      </c>
+      <c r="P122" s="119" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q122" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="R122" s="119"/>
       <c r="S122" s="94"/>
       <c r="V122" s="60"/>
     </row>
@@ -11867,43 +11900,43 @@
     </row>
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
-      <c r="D124" s="115" t="s">
+      <c r="D124" s="118" t="s">
         <v>682</v>
       </c>
-      <c r="E124" s="115" t="s">
+      <c r="E124" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="F124" s="115"/>
-      <c r="G124" s="115" t="s">
+      <c r="F124" s="118"/>
+      <c r="G124" s="118" t="s">
         <v>682</v>
       </c>
-      <c r="H124" s="115" t="s">
+      <c r="H124" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="I124" s="115"/>
-      <c r="J124" s="115" t="s">
+      <c r="I124" s="118"/>
+      <c r="J124" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="K124" s="115" t="s">
+      <c r="K124" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="L124" s="115" t="s">
+      <c r="L124" s="118" t="s">
         <v>682</v>
       </c>
-      <c r="M124" s="115" t="s">
+      <c r="M124" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="N124" s="115"/>
-      <c r="O124" s="115" t="s">
+      <c r="N124" s="118"/>
+      <c r="O124" s="118" t="s">
         <v>613</v>
       </c>
-      <c r="P124" s="115" t="s">
+      <c r="P124" s="118" t="s">
         <v>614</v>
       </c>
-      <c r="Q124" s="115" t="s">
+      <c r="Q124" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="R124" s="115" t="s">
+      <c r="R124" s="118" t="s">
         <v>682</v>
       </c>
       <c r="S124" s="91"/>
@@ -11914,49 +11947,49 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="111" t="s">
+      <c r="D125" s="112" t="s">
         <v>601</v>
       </c>
-      <c r="E125" s="111" t="s">
+      <c r="E125" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="F125" s="111" t="s">
+      <c r="F125" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="G125" s="113" t="s">
+      <c r="G125" s="114" t="s">
         <v>601</v>
       </c>
-      <c r="H125" s="111" t="s">
+      <c r="H125" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="I125" s="111" t="s">
+      <c r="I125" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="J125" s="111" t="s">
+      <c r="J125" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="K125" s="111" t="s">
+      <c r="K125" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="L125" s="111" t="s">
+      <c r="L125" s="112" t="s">
         <v>601</v>
       </c>
-      <c r="M125" s="111" t="s">
+      <c r="M125" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="N125" s="111" t="s">
+      <c r="N125" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="O125" s="111" t="s">
+      <c r="O125" s="112" t="s">
         <v>568</v>
       </c>
-      <c r="P125" s="111" t="s">
+      <c r="P125" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="Q125" s="111" t="s">
+      <c r="Q125" s="112" t="s">
         <v>603</v>
       </c>
-      <c r="R125" s="111" t="s">
+      <c r="R125" s="112" t="s">
         <v>601</v>
       </c>
       <c r="S125" s="92"/>
@@ -11964,44 +11997,44 @@
     </row>
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
-      <c r="D126" s="116" t="s">
-        <v>869</v>
-      </c>
-      <c r="E126" s="116" t="s">
-        <v>870</v>
-      </c>
-      <c r="F126" s="116"/>
-      <c r="G126" s="116" t="s">
-        <v>869</v>
-      </c>
-      <c r="H126" s="116" t="s">
-        <v>870</v>
-      </c>
-      <c r="I126" s="116"/>
-      <c r="J126" s="116" t="s">
-        <v>770</v>
-      </c>
-      <c r="K126" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="L126" s="116" t="s">
-        <v>869</v>
-      </c>
-      <c r="M126" s="116" t="s">
-        <v>870</v>
-      </c>
-      <c r="N126" s="116"/>
-      <c r="O126" s="116" t="s">
-        <v>770</v>
-      </c>
-      <c r="P126" s="116" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q126" s="116" t="s">
-        <v>807</v>
-      </c>
-      <c r="R126" s="116" t="s">
-        <v>869</v>
+      <c r="D126" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="E126" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="F126" s="119"/>
+      <c r="G126" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="H126" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="I126" s="119"/>
+      <c r="J126" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="K126" s="119" t="s">
+        <v>768</v>
+      </c>
+      <c r="L126" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="M126" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="N126" s="119"/>
+      <c r="O126" s="119" t="s">
+        <v>767</v>
+      </c>
+      <c r="P126" s="119" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q126" s="119" t="s">
+        <v>803</v>
+      </c>
+      <c r="R126" s="119" t="s">
+        <v>865</v>
       </c>
       <c r="S126" s="94"/>
       <c r="V126" s="60"/>
@@ -12028,26 +12061,26 @@
     </row>
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
-      <c r="D128" s="115" t="s">
+      <c r="D128" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="E128" s="115"/>
-      <c r="F128" s="115" t="s">
+      <c r="E128" s="118"/>
+      <c r="F128" s="118" t="s">
         <v>608</v>
       </c>
-      <c r="G128" s="115" t="s">
+      <c r="G128" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="H128" s="115" t="s">
+      <c r="H128" s="118" t="s">
         <v>609</v>
       </c>
-      <c r="I128" s="115" t="s">
+      <c r="I128" s="118" t="s">
         <v>680</v>
       </c>
-      <c r="J128" s="115" t="s">
+      <c r="J128" s="118" t="s">
         <v>681</v>
       </c>
-      <c r="K128" s="115"/>
+      <c r="K128" s="118"/>
       <c r="L128" s="82"/>
       <c r="M128" s="82"/>
       <c r="N128" s="82"/>
@@ -12063,62 +12096,62 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="111" t="s">
+      <c r="D129" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="E129" s="111" t="s">
+      <c r="E129" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="F129" s="111" t="s">
+      <c r="F129" s="112" t="s">
         <v>564</v>
       </c>
-      <c r="G129" s="111" t="s">
+      <c r="G129" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="111" t="s">
+      <c r="H129" s="112" t="s">
         <v>565</v>
       </c>
-      <c r="I129" s="111" t="s">
+      <c r="I129" s="112" t="s">
         <v>604</v>
       </c>
-      <c r="J129" s="111" t="s">
+      <c r="J129" s="112" t="s">
         <v>605</v>
       </c>
-      <c r="K129" s="111" t="s">
+      <c r="K129" s="112" t="s">
         <v>701</v>
       </c>
-      <c r="L129" s="111"/>
-      <c r="M129" s="111"/>
-      <c r="N129" s="111"/>
-      <c r="O129" s="111"/>
-      <c r="P129" s="111"/>
-      <c r="Q129" s="111"/>
-      <c r="R129" s="111"/>
+      <c r="L129" s="116"/>
+      <c r="M129" s="112"/>
+      <c r="N129" s="112"/>
+      <c r="O129" s="112"/>
+      <c r="P129" s="112"/>
+      <c r="Q129" s="112"/>
+      <c r="R129" s="112"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
-      <c r="D130" s="116" t="s">
-        <v>870</v>
-      </c>
-      <c r="E130" s="116"/>
-      <c r="F130" s="116" t="s">
-        <v>765</v>
-      </c>
-      <c r="G130" s="116" t="s">
-        <v>834</v>
-      </c>
-      <c r="H130" s="116" t="s">
-        <v>766</v>
-      </c>
-      <c r="I130" s="116" t="s">
-        <v>871</v>
-      </c>
-      <c r="J130" s="116" t="s">
-        <v>872</v>
-      </c>
-      <c r="K130" s="116"/>
+      <c r="D130" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="E130" s="119"/>
+      <c r="F130" s="119" t="s">
+        <v>762</v>
+      </c>
+      <c r="G130" s="119" t="s">
+        <v>830</v>
+      </c>
+      <c r="H130" s="119" t="s">
+        <v>763</v>
+      </c>
+      <c r="I130" s="119" t="s">
+        <v>867</v>
+      </c>
+      <c r="J130" s="119" t="s">
+        <v>868</v>
+      </c>
+      <c r="K130" s="119"/>
       <c r="L130" s="83"/>
       <c r="M130" s="83"/>
       <c r="N130" s="83"/>
@@ -12174,21 +12207,23 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="111"/>
-      <c r="E133" s="111"/>
-      <c r="F133" s="111"/>
-      <c r="G133" s="113"/>
-      <c r="H133" s="111"/>
-      <c r="I133" s="111"/>
-      <c r="J133" s="111"/>
-      <c r="K133" s="111"/>
-      <c r="L133" s="111"/>
-      <c r="M133" s="111"/>
-      <c r="N133" s="111"/>
-      <c r="O133" s="111"/>
-      <c r="P133" s="111"/>
-      <c r="Q133" s="111"/>
-      <c r="R133" s="111"/>
+      <c r="D133" s="112" t="s">
+        <v>869</v>
+      </c>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112"/>
+      <c r="G133" s="114"/>
+      <c r="H133" s="112"/>
+      <c r="I133" s="112"/>
+      <c r="J133" s="112"/>
+      <c r="K133" s="112"/>
+      <c r="L133" s="112"/>
+      <c r="M133" s="112"/>
+      <c r="N133" s="112"/>
+      <c r="O133" s="112"/>
+      <c r="P133" s="112"/>
+      <c r="Q133" s="112"/>
+      <c r="R133" s="112"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
@@ -12257,21 +12292,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="111"/>
-      <c r="E137" s="111"/>
-      <c r="F137" s="111"/>
-      <c r="G137" s="111"/>
-      <c r="H137" s="111"/>
-      <c r="I137" s="111"/>
-      <c r="J137" s="111"/>
-      <c r="K137" s="111"/>
-      <c r="L137" s="111"/>
-      <c r="M137" s="111"/>
-      <c r="N137" s="111"/>
-      <c r="O137" s="111"/>
-      <c r="P137" s="111"/>
-      <c r="Q137" s="111"/>
-      <c r="R137" s="111"/>
+      <c r="D137" s="112"/>
+      <c r="E137" s="112"/>
+      <c r="F137" s="112"/>
+      <c r="G137" s="112"/>
+      <c r="H137" s="112"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="112"/>
+      <c r="K137" s="112"/>
+      <c r="L137" s="112"/>
+      <c r="M137" s="112"/>
+      <c r="N137" s="112"/>
+      <c r="O137" s="112"/>
+      <c r="P137" s="112"/>
+      <c r="Q137" s="112"/>
+      <c r="R137" s="112"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
@@ -12340,21 +12375,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="111"/>
-      <c r="E141" s="111"/>
-      <c r="F141" s="111"/>
-      <c r="G141" s="113"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="111"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="111"/>
-      <c r="L141" s="111"/>
-      <c r="M141" s="111"/>
-      <c r="N141" s="111"/>
-      <c r="O141" s="111"/>
-      <c r="P141" s="111"/>
-      <c r="Q141" s="111"/>
-      <c r="R141" s="111"/>
+      <c r="D141" s="112"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="112"/>
+      <c r="G141" s="114"/>
+      <c r="H141" s="112"/>
+      <c r="I141" s="112"/>
+      <c r="J141" s="112"/>
+      <c r="K141" s="112"/>
+      <c r="L141" s="112"/>
+      <c r="M141" s="112"/>
+      <c r="N141" s="112"/>
+      <c r="O141" s="112"/>
+      <c r="P141" s="112"/>
+      <c r="Q141" s="112"/>
+      <c r="R141" s="112"/>
       <c r="S141" s="92"/>
       <c r="V141" s="60"/>
     </row>
@@ -12423,21 +12458,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="111"/>
-      <c r="E145" s="111"/>
-      <c r="F145" s="111"/>
-      <c r="G145" s="113"/>
-      <c r="H145" s="111"/>
-      <c r="I145" s="111"/>
-      <c r="J145" s="111"/>
-      <c r="K145" s="111"/>
-      <c r="L145" s="111"/>
-      <c r="M145" s="111"/>
-      <c r="N145" s="111"/>
-      <c r="O145" s="111"/>
-      <c r="P145" s="111"/>
-      <c r="Q145" s="111"/>
-      <c r="R145" s="111"/>
+      <c r="D145" s="112"/>
+      <c r="E145" s="112"/>
+      <c r="F145" s="112"/>
+      <c r="G145" s="114"/>
+      <c r="H145" s="112"/>
+      <c r="I145" s="112"/>
+      <c r="J145" s="112"/>
+      <c r="K145" s="112"/>
+      <c r="L145" s="112"/>
+      <c r="M145" s="112"/>
+      <c r="N145" s="112"/>
+      <c r="O145" s="112"/>
+      <c r="P145" s="112"/>
+      <c r="Q145" s="112"/>
+      <c r="R145" s="112"/>
       <c r="S145" s="92"/>
       <c r="V145" s="60"/>
     </row>
@@ -12506,21 +12541,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="111"/>
-      <c r="E149" s="111"/>
-      <c r="F149" s="111"/>
-      <c r="G149" s="111"/>
-      <c r="H149" s="111"/>
-      <c r="I149" s="111"/>
-      <c r="J149" s="111"/>
-      <c r="K149" s="111"/>
-      <c r="L149" s="111"/>
-      <c r="M149" s="111"/>
-      <c r="N149" s="111"/>
-      <c r="O149" s="111"/>
-      <c r="P149" s="111"/>
-      <c r="Q149" s="111"/>
-      <c r="R149" s="111"/>
+      <c r="D149" s="112"/>
+      <c r="E149" s="112"/>
+      <c r="F149" s="112"/>
+      <c r="G149" s="112"/>
+      <c r="H149" s="112"/>
+      <c r="I149" s="112"/>
+      <c r="J149" s="112"/>
+      <c r="K149" s="112"/>
+      <c r="L149" s="112"/>
+      <c r="M149" s="112"/>
+      <c r="N149" s="112"/>
+      <c r="O149" s="112"/>
+      <c r="P149" s="112"/>
+      <c r="Q149" s="112"/>
+      <c r="R149" s="112"/>
       <c r="S149" s="92"/>
       <c r="V149" s="60"/>
     </row>
@@ -12589,21 +12624,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="111"/>
-      <c r="E153" s="111"/>
-      <c r="F153" s="111"/>
-      <c r="G153" s="111"/>
-      <c r="H153" s="111"/>
-      <c r="I153" s="111"/>
-      <c r="J153" s="111"/>
-      <c r="K153" s="111"/>
-      <c r="L153" s="111"/>
-      <c r="M153" s="111"/>
-      <c r="N153" s="111"/>
-      <c r="O153" s="111"/>
-      <c r="P153" s="111"/>
-      <c r="Q153" s="111"/>
-      <c r="R153" s="111"/>
+      <c r="D153" s="112"/>
+      <c r="E153" s="112"/>
+      <c r="F153" s="112"/>
+      <c r="G153" s="112"/>
+      <c r="H153" s="112"/>
+      <c r="I153" s="112"/>
+      <c r="J153" s="112"/>
+      <c r="K153" s="112"/>
+      <c r="L153" s="112"/>
+      <c r="M153" s="112"/>
+      <c r="N153" s="112"/>
+      <c r="O153" s="112"/>
+      <c r="P153" s="112"/>
+      <c r="Q153" s="112"/>
+      <c r="R153" s="112"/>
       <c r="S153" s="92"/>
       <c r="V153" s="60"/>
     </row>
@@ -12672,21 +12707,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="111"/>
-      <c r="E157" s="111"/>
-      <c r="F157" s="111"/>
-      <c r="G157" s="111"/>
-      <c r="H157" s="111"/>
-      <c r="I157" s="111"/>
-      <c r="J157" s="111"/>
-      <c r="K157" s="111"/>
-      <c r="L157" s="111"/>
-      <c r="M157" s="111"/>
-      <c r="N157" s="111"/>
-      <c r="O157" s="111"/>
-      <c r="P157" s="111"/>
-      <c r="Q157" s="111"/>
-      <c r="R157" s="111"/>
+      <c r="D157" s="112"/>
+      <c r="E157" s="112"/>
+      <c r="F157" s="112"/>
+      <c r="G157" s="112"/>
+      <c r="H157" s="112"/>
+      <c r="I157" s="112"/>
+      <c r="J157" s="112"/>
+      <c r="K157" s="112"/>
+      <c r="L157" s="112"/>
+      <c r="M157" s="112"/>
+      <c r="N157" s="112"/>
+      <c r="O157" s="112"/>
+      <c r="P157" s="112"/>
+      <c r="Q157" s="112"/>
+      <c r="R157" s="112"/>
       <c r="S157" s="92"/>
       <c r="V157" s="60"/>
     </row>
@@ -12755,21 +12790,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="111"/>
-      <c r="G161" s="111"/>
-      <c r="H161" s="111"/>
-      <c r="I161" s="111"/>
-      <c r="J161" s="111"/>
-      <c r="K161" s="111"/>
-      <c r="L161" s="111"/>
-      <c r="M161" s="111"/>
-      <c r="N161" s="111"/>
-      <c r="O161" s="111"/>
-      <c r="P161" s="111"/>
-      <c r="Q161" s="111"/>
-      <c r="R161" s="111"/>
+      <c r="D161" s="112"/>
+      <c r="E161" s="112"/>
+      <c r="F161" s="112"/>
+      <c r="G161" s="112"/>
+      <c r="H161" s="112"/>
+      <c r="I161" s="112"/>
+      <c r="J161" s="112"/>
+      <c r="K161" s="112"/>
+      <c r="L161" s="112"/>
+      <c r="M161" s="112"/>
+      <c r="N161" s="112"/>
+      <c r="O161" s="112"/>
+      <c r="P161" s="112"/>
+      <c r="Q161" s="112"/>
+      <c r="R161" s="112"/>
       <c r="S161" s="92"/>
       <c r="V161" s="60"/>
     </row>
@@ -12838,21 +12873,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="111"/>
-      <c r="E165" s="111"/>
-      <c r="F165" s="111"/>
-      <c r="G165" s="111"/>
-      <c r="H165" s="111"/>
-      <c r="I165" s="111"/>
-      <c r="J165" s="111"/>
-      <c r="K165" s="111"/>
-      <c r="L165" s="111"/>
-      <c r="M165" s="111"/>
-      <c r="N165" s="111"/>
-      <c r="O165" s="111"/>
-      <c r="P165" s="111"/>
-      <c r="Q165" s="111"/>
-      <c r="R165" s="111"/>
+      <c r="D165" s="112"/>
+      <c r="E165" s="112"/>
+      <c r="F165" s="112"/>
+      <c r="G165" s="112"/>
+      <c r="H165" s="112"/>
+      <c r="I165" s="112"/>
+      <c r="J165" s="112"/>
+      <c r="K165" s="112"/>
+      <c r="L165" s="112"/>
+      <c r="M165" s="112"/>
+      <c r="N165" s="112"/>
+      <c r="O165" s="112"/>
+      <c r="P165" s="112"/>
+      <c r="Q165" s="112"/>
+      <c r="R165" s="112"/>
       <c r="S165" s="92"/>
       <c r="V165" s="60"/>
     </row>
@@ -12920,21 +12955,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="111"/>
-      <c r="E169" s="111"/>
-      <c r="F169" s="111"/>
-      <c r="G169" s="111"/>
-      <c r="H169" s="111"/>
-      <c r="I169" s="111"/>
-      <c r="J169" s="111"/>
-      <c r="K169" s="111"/>
-      <c r="L169" s="111"/>
-      <c r="M169" s="111"/>
-      <c r="N169" s="111"/>
-      <c r="O169" s="111"/>
-      <c r="P169" s="111"/>
-      <c r="Q169" s="111"/>
-      <c r="R169" s="111"/>
+      <c r="D169" s="112"/>
+      <c r="E169" s="112"/>
+      <c r="F169" s="112"/>
+      <c r="G169" s="112"/>
+      <c r="H169" s="112"/>
+      <c r="I169" s="112"/>
+      <c r="J169" s="112"/>
+      <c r="K169" s="112"/>
+      <c r="L169" s="112"/>
+      <c r="M169" s="112"/>
+      <c r="N169" s="112"/>
+      <c r="O169" s="112"/>
+      <c r="P169" s="112"/>
+      <c r="Q169" s="112"/>
+      <c r="R169" s="112"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="58"/>
@@ -12999,21 +13034,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="111"/>
-      <c r="E173" s="111"/>
-      <c r="F173" s="111"/>
-      <c r="G173" s="113"/>
-      <c r="H173" s="111"/>
-      <c r="I173" s="111"/>
-      <c r="J173" s="111"/>
-      <c r="K173" s="111"/>
-      <c r="L173" s="111"/>
-      <c r="M173" s="111"/>
-      <c r="N173" s="111"/>
-      <c r="O173" s="111"/>
-      <c r="P173" s="111"/>
-      <c r="Q173" s="111"/>
-      <c r="R173" s="111"/>
+      <c r="D173" s="112"/>
+      <c r="E173" s="112"/>
+      <c r="F173" s="112"/>
+      <c r="G173" s="114"/>
+      <c r="H173" s="112"/>
+      <c r="I173" s="112"/>
+      <c r="J173" s="112"/>
+      <c r="K173" s="112"/>
+      <c r="L173" s="112"/>
+      <c r="M173" s="112"/>
+      <c r="N173" s="112"/>
+      <c r="O173" s="112"/>
+      <c r="P173" s="112"/>
+      <c r="Q173" s="112"/>
+      <c r="R173" s="112"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
@@ -13078,21 +13113,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="111"/>
-      <c r="G177" s="111"/>
-      <c r="H177" s="111"/>
-      <c r="I177" s="111"/>
-      <c r="J177" s="111"/>
-      <c r="K177" s="111"/>
-      <c r="L177" s="111"/>
-      <c r="M177" s="111"/>
-      <c r="N177" s="111"/>
-      <c r="O177" s="111"/>
-      <c r="P177" s="111"/>
-      <c r="Q177" s="111"/>
-      <c r="R177" s="111"/>
+      <c r="D177" s="112"/>
+      <c r="E177" s="112"/>
+      <c r="F177" s="112"/>
+      <c r="G177" s="112"/>
+      <c r="H177" s="112"/>
+      <c r="I177" s="112"/>
+      <c r="J177" s="112"/>
+      <c r="K177" s="112"/>
+      <c r="L177" s="112"/>
+      <c r="M177" s="112"/>
+      <c r="N177" s="112"/>
+      <c r="O177" s="112"/>
+      <c r="P177" s="112"/>
+      <c r="Q177" s="112"/>
+      <c r="R177" s="112"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="58"/>
@@ -13157,21 +13192,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="111"/>
-      <c r="E181" s="111"/>
-      <c r="F181" s="111"/>
-      <c r="G181" s="113"/>
-      <c r="H181" s="111"/>
-      <c r="I181" s="111"/>
-      <c r="J181" s="111"/>
-      <c r="K181" s="111"/>
-      <c r="L181" s="111"/>
-      <c r="M181" s="111"/>
-      <c r="N181" s="111"/>
-      <c r="O181" s="111"/>
-      <c r="P181" s="111"/>
-      <c r="Q181" s="111"/>
-      <c r="R181" s="111"/>
+      <c r="D181" s="112"/>
+      <c r="E181" s="112"/>
+      <c r="F181" s="112"/>
+      <c r="G181" s="114"/>
+      <c r="H181" s="112"/>
+      <c r="I181" s="112"/>
+      <c r="J181" s="112"/>
+      <c r="K181" s="112"/>
+      <c r="L181" s="112"/>
+      <c r="M181" s="112"/>
+      <c r="N181" s="112"/>
+      <c r="O181" s="112"/>
+      <c r="P181" s="112"/>
+      <c r="Q181" s="112"/>
+      <c r="R181" s="112"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
@@ -13236,21 +13271,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="111"/>
-      <c r="E185" s="111"/>
-      <c r="F185" s="111"/>
-      <c r="G185" s="111"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
-      <c r="K185" s="111"/>
-      <c r="L185" s="111"/>
-      <c r="M185" s="111"/>
-      <c r="N185" s="111"/>
-      <c r="O185" s="111"/>
-      <c r="P185" s="111"/>
-      <c r="Q185" s="111"/>
-      <c r="R185" s="111"/>
+      <c r="D185" s="112"/>
+      <c r="E185" s="112"/>
+      <c r="F185" s="112"/>
+      <c r="G185" s="112"/>
+      <c r="H185" s="112"/>
+      <c r="I185" s="112"/>
+      <c r="J185" s="112"/>
+      <c r="K185" s="112"/>
+      <c r="L185" s="112"/>
+      <c r="M185" s="112"/>
+      <c r="N185" s="112"/>
+      <c r="O185" s="112"/>
+      <c r="P185" s="112"/>
+      <c r="Q185" s="112"/>
+      <c r="R185" s="112"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="58"/>
@@ -13315,21 +13350,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="111"/>
-      <c r="E189" s="111"/>
-      <c r="F189" s="111"/>
-      <c r="G189" s="111"/>
-      <c r="H189" s="111"/>
-      <c r="I189" s="111"/>
-      <c r="J189" s="111"/>
-      <c r="K189" s="111"/>
-      <c r="L189" s="111"/>
-      <c r="M189" s="111"/>
-      <c r="N189" s="111"/>
-      <c r="O189" s="111"/>
-      <c r="P189" s="111"/>
-      <c r="Q189" s="111"/>
-      <c r="R189" s="111"/>
+      <c r="D189" s="112"/>
+      <c r="E189" s="112"/>
+      <c r="F189" s="112"/>
+      <c r="G189" s="112"/>
+      <c r="H189" s="112"/>
+      <c r="I189" s="112"/>
+      <c r="J189" s="112"/>
+      <c r="K189" s="112"/>
+      <c r="L189" s="112"/>
+      <c r="M189" s="112"/>
+      <c r="N189" s="112"/>
+      <c r="O189" s="112"/>
+      <c r="P189" s="112"/>
+      <c r="Q189" s="112"/>
+      <c r="R189" s="112"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
@@ -13394,21 +13429,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="111"/>
-      <c r="E193" s="111"/>
-      <c r="F193" s="111"/>
-      <c r="G193" s="113"/>
-      <c r="H193" s="111"/>
-      <c r="I193" s="111"/>
-      <c r="J193" s="111"/>
-      <c r="K193" s="111"/>
-      <c r="L193" s="111"/>
-      <c r="M193" s="111"/>
-      <c r="N193" s="111"/>
-      <c r="O193" s="111"/>
-      <c r="P193" s="111"/>
-      <c r="Q193" s="111"/>
-      <c r="R193" s="111"/>
+      <c r="D193" s="112"/>
+      <c r="E193" s="112"/>
+      <c r="F193" s="112"/>
+      <c r="G193" s="114"/>
+      <c r="H193" s="112"/>
+      <c r="I193" s="112"/>
+      <c r="J193" s="112"/>
+      <c r="K193" s="112"/>
+      <c r="L193" s="112"/>
+      <c r="M193" s="112"/>
+      <c r="N193" s="112"/>
+      <c r="O193" s="112"/>
+      <c r="P193" s="112"/>
+      <c r="Q193" s="112"/>
+      <c r="R193" s="112"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="58"/>
@@ -13473,21 +13508,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="111"/>
-      <c r="E197" s="111"/>
-      <c r="F197" s="111"/>
-      <c r="G197" s="113"/>
-      <c r="H197" s="111"/>
-      <c r="I197" s="111"/>
-      <c r="J197" s="111"/>
-      <c r="K197" s="111"/>
-      <c r="L197" s="111"/>
-      <c r="M197" s="111"/>
-      <c r="N197" s="111"/>
-      <c r="O197" s="111"/>
-      <c r="P197" s="111"/>
-      <c r="Q197" s="111"/>
-      <c r="R197" s="111"/>
+      <c r="D197" s="112"/>
+      <c r="E197" s="112"/>
+      <c r="F197" s="112"/>
+      <c r="G197" s="114"/>
+      <c r="H197" s="112"/>
+      <c r="I197" s="112"/>
+      <c r="J197" s="112"/>
+      <c r="K197" s="112"/>
+      <c r="L197" s="112"/>
+      <c r="M197" s="112"/>
+      <c r="N197" s="112"/>
+      <c r="O197" s="112"/>
+      <c r="P197" s="112"/>
+      <c r="Q197" s="112"/>
+      <c r="R197" s="112"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
@@ -13552,21 +13587,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="111"/>
-      <c r="E201" s="111"/>
-      <c r="F201" s="111"/>
-      <c r="G201" s="113"/>
-      <c r="H201" s="111"/>
-      <c r="I201" s="111"/>
-      <c r="J201" s="111"/>
-      <c r="K201" s="111"/>
-      <c r="L201" s="111"/>
-      <c r="M201" s="111"/>
-      <c r="N201" s="111"/>
-      <c r="O201" s="111"/>
-      <c r="P201" s="111"/>
-      <c r="Q201" s="111"/>
-      <c r="R201" s="111"/>
+      <c r="D201" s="112"/>
+      <c r="E201" s="112"/>
+      <c r="F201" s="112"/>
+      <c r="G201" s="114"/>
+      <c r="H201" s="112"/>
+      <c r="I201" s="112"/>
+      <c r="J201" s="112"/>
+      <c r="K201" s="112"/>
+      <c r="L201" s="112"/>
+      <c r="M201" s="112"/>
+      <c r="N201" s="112"/>
+      <c r="O201" s="112"/>
+      <c r="P201" s="112"/>
+      <c r="Q201" s="112"/>
+      <c r="R201" s="112"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="58"/>
@@ -13631,21 +13666,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="111"/>
-      <c r="E205" s="111"/>
-      <c r="F205" s="111"/>
-      <c r="G205" s="113"/>
-      <c r="H205" s="111"/>
-      <c r="I205" s="111"/>
-      <c r="J205" s="111"/>
-      <c r="K205" s="111"/>
-      <c r="L205" s="111"/>
-      <c r="M205" s="111"/>
-      <c r="N205" s="111"/>
-      <c r="O205" s="111"/>
-      <c r="P205" s="111"/>
-      <c r="Q205" s="111"/>
-      <c r="R205" s="111"/>
+      <c r="D205" s="112"/>
+      <c r="E205" s="112"/>
+      <c r="F205" s="112"/>
+      <c r="G205" s="114"/>
+      <c r="H205" s="112"/>
+      <c r="I205" s="112"/>
+      <c r="J205" s="112"/>
+      <c r="K205" s="112"/>
+      <c r="L205" s="112"/>
+      <c r="M205" s="112"/>
+      <c r="N205" s="112"/>
+      <c r="O205" s="112"/>
+      <c r="P205" s="112"/>
+      <c r="Q205" s="112"/>
+      <c r="R205" s="112"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="58"/>
@@ -13710,21 +13745,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="113"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="111"/>
-      <c r="Q209" s="111"/>
-      <c r="R209" s="111"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="114"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
+      <c r="L209" s="112"/>
+      <c r="M209" s="112"/>
+      <c r="N209" s="112"/>
+      <c r="O209" s="112"/>
+      <c r="P209" s="112"/>
+      <c r="Q209" s="112"/>
+      <c r="R209" s="112"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="58"/>
@@ -13789,21 +13824,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="111"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="111"/>
-      <c r="G213" s="113"/>
-      <c r="H213" s="111"/>
-      <c r="I213" s="111"/>
-      <c r="J213" s="111"/>
-      <c r="K213" s="111"/>
-      <c r="L213" s="111"/>
-      <c r="M213" s="111"/>
-      <c r="N213" s="111"/>
-      <c r="O213" s="111"/>
-      <c r="P213" s="111"/>
-      <c r="Q213" s="111"/>
-      <c r="R213" s="111"/>
+      <c r="D213" s="112"/>
+      <c r="E213" s="112"/>
+      <c r="F213" s="112"/>
+      <c r="G213" s="114"/>
+      <c r="H213" s="112"/>
+      <c r="I213" s="112"/>
+      <c r="J213" s="112"/>
+      <c r="K213" s="112"/>
+      <c r="L213" s="112"/>
+      <c r="M213" s="112"/>
+      <c r="N213" s="112"/>
+      <c r="O213" s="112"/>
+      <c r="P213" s="112"/>
+      <c r="Q213" s="112"/>
+      <c r="R213" s="112"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="58"/>
@@ -13868,21 +13903,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="111"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="111"/>
-      <c r="G217" s="113"/>
-      <c r="H217" s="111"/>
-      <c r="I217" s="111"/>
-      <c r="J217" s="111"/>
-      <c r="K217" s="111"/>
-      <c r="L217" s="111"/>
-      <c r="M217" s="111"/>
-      <c r="N217" s="111"/>
-      <c r="O217" s="111"/>
-      <c r="P217" s="111"/>
-      <c r="Q217" s="111"/>
-      <c r="R217" s="111"/>
+      <c r="D217" s="112"/>
+      <c r="E217" s="112"/>
+      <c r="F217" s="112"/>
+      <c r="G217" s="114"/>
+      <c r="H217" s="112"/>
+      <c r="I217" s="112"/>
+      <c r="J217" s="112"/>
+      <c r="K217" s="112"/>
+      <c r="L217" s="112"/>
+      <c r="M217" s="112"/>
+      <c r="N217" s="112"/>
+      <c r="O217" s="112"/>
+      <c r="P217" s="112"/>
+      <c r="Q217" s="112"/>
+      <c r="R217" s="112"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="58"/>
@@ -13947,21 +13982,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="1"/>
-      <c r="D221" s="111"/>
-      <c r="E221" s="111"/>
-      <c r="F221" s="111"/>
-      <c r="G221" s="113"/>
-      <c r="H221" s="111"/>
-      <c r="I221" s="111"/>
-      <c r="J221" s="111"/>
-      <c r="K221" s="111"/>
-      <c r="L221" s="111"/>
-      <c r="M221" s="111"/>
-      <c r="N221" s="111"/>
-      <c r="O221" s="111"/>
-      <c r="P221" s="111"/>
-      <c r="Q221" s="111"/>
-      <c r="R221" s="111"/>
+      <c r="D221" s="112"/>
+      <c r="E221" s="112"/>
+      <c r="F221" s="112"/>
+      <c r="G221" s="114"/>
+      <c r="H221" s="112"/>
+      <c r="I221" s="112"/>
+      <c r="J221" s="112"/>
+      <c r="K221" s="112"/>
+      <c r="L221" s="112"/>
+      <c r="M221" s="112"/>
+      <c r="N221" s="112"/>
+      <c r="O221" s="112"/>
+      <c r="P221" s="112"/>
+      <c r="Q221" s="112"/>
+      <c r="R221" s="112"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="58"/>
@@ -14026,21 +14061,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="111"/>
-      <c r="E225" s="111"/>
-      <c r="F225" s="111"/>
-      <c r="G225" s="113"/>
-      <c r="H225" s="111"/>
-      <c r="I225" s="111"/>
-      <c r="J225" s="111"/>
-      <c r="K225" s="111"/>
-      <c r="L225" s="111"/>
-      <c r="M225" s="111"/>
-      <c r="N225" s="111"/>
-      <c r="O225" s="111"/>
-      <c r="P225" s="111"/>
-      <c r="Q225" s="111"/>
-      <c r="R225" s="111"/>
+      <c r="D225" s="112"/>
+      <c r="E225" s="112"/>
+      <c r="F225" s="112"/>
+      <c r="G225" s="114"/>
+      <c r="H225" s="112"/>
+      <c r="I225" s="112"/>
+      <c r="J225" s="112"/>
+      <c r="K225" s="112"/>
+      <c r="L225" s="112"/>
+      <c r="M225" s="112"/>
+      <c r="N225" s="112"/>
+      <c r="O225" s="112"/>
+      <c r="P225" s="112"/>
+      <c r="Q225" s="112"/>
+      <c r="R225" s="112"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="58"/>
@@ -14105,21 +14140,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="111"/>
-      <c r="E229" s="111"/>
-      <c r="F229" s="111"/>
-      <c r="G229" s="113"/>
-      <c r="H229" s="111"/>
-      <c r="I229" s="111"/>
-      <c r="J229" s="111"/>
-      <c r="K229" s="111"/>
-      <c r="L229" s="111"/>
-      <c r="M229" s="111"/>
-      <c r="N229" s="111"/>
-      <c r="O229" s="111"/>
-      <c r="P229" s="111"/>
-      <c r="Q229" s="111"/>
-      <c r="R229" s="111"/>
+      <c r="D229" s="112"/>
+      <c r="E229" s="112"/>
+      <c r="F229" s="112"/>
+      <c r="G229" s="114"/>
+      <c r="H229" s="112"/>
+      <c r="I229" s="112"/>
+      <c r="J229" s="112"/>
+      <c r="K229" s="112"/>
+      <c r="L229" s="112"/>
+      <c r="M229" s="112"/>
+      <c r="N229" s="112"/>
+      <c r="O229" s="112"/>
+      <c r="P229" s="112"/>
+      <c r="Q229" s="112"/>
+      <c r="R229" s="112"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="58"/>
@@ -14184,21 +14219,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="111"/>
-      <c r="E233" s="111"/>
-      <c r="F233" s="111"/>
-      <c r="G233" s="113"/>
-      <c r="H233" s="111"/>
-      <c r="I233" s="111"/>
-      <c r="J233" s="111"/>
-      <c r="K233" s="111"/>
-      <c r="L233" s="111"/>
-      <c r="M233" s="111"/>
-      <c r="N233" s="111"/>
-      <c r="O233" s="111"/>
-      <c r="P233" s="111"/>
-      <c r="Q233" s="111"/>
-      <c r="R233" s="111"/>
+      <c r="D233" s="112"/>
+      <c r="E233" s="112"/>
+      <c r="F233" s="112"/>
+      <c r="G233" s="114"/>
+      <c r="H233" s="112"/>
+      <c r="I233" s="112"/>
+      <c r="J233" s="112"/>
+      <c r="K233" s="112"/>
+      <c r="L233" s="112"/>
+      <c r="M233" s="112"/>
+      <c r="N233" s="112"/>
+      <c r="O233" s="112"/>
+      <c r="P233" s="112"/>
+      <c r="Q233" s="112"/>
+      <c r="R233" s="112"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="58"/>
@@ -14263,21 +14298,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="111"/>
-      <c r="E237" s="111"/>
-      <c r="F237" s="111"/>
-      <c r="G237" s="113"/>
-      <c r="H237" s="111"/>
-      <c r="I237" s="111"/>
-      <c r="J237" s="111"/>
-      <c r="K237" s="111"/>
-      <c r="L237" s="111"/>
-      <c r="M237" s="111"/>
-      <c r="N237" s="111"/>
-      <c r="O237" s="111"/>
-      <c r="P237" s="111"/>
-      <c r="Q237" s="111"/>
-      <c r="R237" s="111"/>
+      <c r="D237" s="112"/>
+      <c r="E237" s="112"/>
+      <c r="F237" s="112"/>
+      <c r="G237" s="114"/>
+      <c r="H237" s="112"/>
+      <c r="I237" s="112"/>
+      <c r="J237" s="112"/>
+      <c r="K237" s="112"/>
+      <c r="L237" s="112"/>
+      <c r="M237" s="112"/>
+      <c r="N237" s="112"/>
+      <c r="O237" s="112"/>
+      <c r="P237" s="112"/>
+      <c r="Q237" s="112"/>
+      <c r="R237" s="112"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="58"/>
@@ -14342,21 +14377,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="111"/>
-      <c r="E241" s="111"/>
-      <c r="F241" s="111"/>
-      <c r="G241" s="113"/>
-      <c r="H241" s="111"/>
-      <c r="I241" s="111"/>
-      <c r="J241" s="111"/>
-      <c r="K241" s="111"/>
-      <c r="L241" s="111"/>
-      <c r="M241" s="111"/>
-      <c r="N241" s="111"/>
-      <c r="O241" s="111"/>
-      <c r="P241" s="111"/>
-      <c r="Q241" s="111"/>
-      <c r="R241" s="111"/>
+      <c r="D241" s="112"/>
+      <c r="E241" s="112"/>
+      <c r="F241" s="112"/>
+      <c r="G241" s="114"/>
+      <c r="H241" s="112"/>
+      <c r="I241" s="112"/>
+      <c r="J241" s="112"/>
+      <c r="K241" s="112"/>
+      <c r="L241" s="112"/>
+      <c r="M241" s="112"/>
+      <c r="N241" s="112"/>
+      <c r="O241" s="112"/>
+      <c r="P241" s="112"/>
+      <c r="Q241" s="112"/>
+      <c r="R241" s="112"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="58"/>
@@ -14580,6 +14615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533DB46B-3B3B-4E92-ABBC-F317F6EF9408}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A423E86-A5C1-4222-BCA3-005E9B6E10C2}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -20545,7 +20595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2458CB-2FC9-452E-BF1F-EE89F77A8897}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -26511,7 +26561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B639F640-A47F-4E5D-97CC-218D5DA42E2F}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
@@ -32470,7 +32520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038C983-B125-4E67-81BB-FB3249D119F4}">
   <dimension ref="B2:R37"/>
   <sheetViews>
@@ -33182,7 +33232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3FADB1-5996-43FA-9088-1195345750BF}">
   <dimension ref="A2:Q30"/>
   <sheetViews>
@@ -33699,7 +33749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E996769-E0A0-48CC-8CA4-0FCF71044A6B}">
   <dimension ref="A1"/>
   <sheetViews>
